--- a/Repositories/iReport/新建文件夹 (3)/GPA自动焊接机始终业点检表_3F.xlsx
+++ b/Repositories/iReport/新建文件夹 (3)/GPA自动焊接机始终业点检表_3F.xlsx
@@ -31,6 +31,27 @@
     <author>sun baolu/孙宝禄</author>
   </authors>
   <commentList>
+    <comment ref="AJ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">功能区1
+Action
+1
+0
+0
+Required=0;OutputVisible=0;ButtonMode=1;LineVisible=1;DisplayString=每日保存;BackgroundColor=153,204,255;EnableAutoFontSize=1;ButtonFontPriority=1;ButtonFontAlign=Center;ButtonFont=Arial;ButtonFontSize=11;ButtonWeight=Normal;ButtonFontColor=255,255,255;ActionType=menu;Menu=serverSave;WindowsMode=0
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -91,112 +112,49 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">功能区2
-Action
-3
-0
-0
-Required=0;OutputVisible=0;ButtonMode=1;LineVisible=1;DisplayString=每日保存;ButtonFontVerticalAlignment=1;BackgroundColor=153,204,255;EnableAutoFontSize=1;ButtonFontPriority=1;ButtonFontAlign=Center;ButtonFont=Arial;ButtonFontSize=26;ButtonWeight=Normal;ButtonFontColor=255,255,255;ActionType=menu;Menu=continuationSave;WindowsMode=0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">功能区7
-KeyboardText
-4
-0
-0
-Required=0;Lines=1;InputRestriction=None;MaxLength=0;Align=Center;Font=Arial;FontSize=10;Weight=Normal;Color=0,0,0;VerticalAlignment=1
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">功能区8
-KeyboardText
+    <comment ref="AA2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">功能区3
+QRCode
 5
 0
 0
-Required=0;Lines=1;InputRestriction=None;MaxLength=0;Align=Center;Font=Arial;FontSize=10;Weight=Normal;Color=0,0,0;VerticalAlignment=1
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">功能区3
-Action
+Required=0;UseExternalDevice=0;Lines=1;IsNumeric=0;Align=Left;Font=Arial;FontSize=30;Weight=Normal;Color=0,0,0;EnableAutoFontSize=1;DefaultCamera=0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">功能区4
+Approve
 6
 0
 0
-Required=0;OutputVisible=0;ButtonMode=1;LineVisible=1;DisplayString=月末提交;ButtonFontVerticalAlignment=1;BackgroundColor=153,204,255;EnableAutoFontSize=1;ButtonFontPriority=1;ButtonFontAlign=Center;ButtonFont=Arial;ButtonFontSize=26;ButtonWeight=Normal;ButtonFontColor=255,255,255;ActionType=menu;Menu=serverSave;WindowsMode=0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">功能区10
-Approve
-7
-0
-0
-Required=0;SignType=1;QuickSave=0;RequiredCheck=0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK2" authorId="0" shapeId="0">
+Required=0;SignType=0;QuickSave=0;RequiredCheck=0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,10 +167,10 @@
           </rPr>
           <t xml:space="preserve">功能区4
 Action
-8
-0
-0
-Required=0;OutputVisible=0;ButtonMode=1;LineVisible=1;DisplayString=月末批准;ButtonFontVerticalAlignment=1;BackgroundColor=153,204,255;EnableAutoFontSize=1;ButtonFontPriority=1;ButtonFontAlign=Center;ButtonFont=Arial;ButtonFontSize=26;ButtonWeight=Normal;ButtonFontColor=255,255,255;ActionType=menu;Menu=continuationFinishSave;WindowsMode=0
+7
+0
+0
+Required=0;OutputVisible=0;ButtonMode=1;LineVisible=1;DisplayString=提 交;ButtonFontVerticalAlignment=1;BackgroundColor=153,204,255;EnableAutoFontSize=1;ButtonFontPriority=1;ButtonFontAlign=Center;ButtonFont=Arial;ButtonFontSize=11;ButtonWeight=Normal;ButtonFontColor=255,255,255;ActionType=menu;Menu=serverSave;WindowsMode=0
 </t>
         </r>
       </text>
@@ -276,6 +234,48 @@
 0
 0
 Required=0;Default=0;IsNumeric=0;ColorManageCluster=0;ToggleInput=0;FontPriority=2;Display=Labels;Items=1,2,3,4,5,6;Labels=线缆素子焊接,屏蔽盖焊接,天线素子焊接,天线焊接,TEL基板焊接,GNSS基板焊接;Align=Center;Font=Arial;FontSize=10;MaxFontSize=10;Weight=Bold;Color=0,0,0;EnableAutoFontSize=1;UseKeyboard=0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">功能区9
+QRCode
+11
+0
+0
+Required=0;UseExternalDevice=0;Lines=1;IsNumeric=0;Align=Left;Font=Arial;FontSize=30;Weight=Normal;Color=0,0,0;EnableAutoFontSize=1;DefaultCamera=0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">功能区10
+Action
+12
+0
+0
+Required=0;OutputVisible=0;ButtonMode=1;LineVisible=1;DisplayString=批 准;ButtonFontVerticalAlignment=1;BackgroundColor=153,204,255;EnableAutoFontSize=1;ButtonFontPriority=1;ButtonFontAlign=Center;ButtonFont=Arial;ButtonFontSize=11;ButtonWeight=Normal;ButtonFontColor=255,255,255;ActionType=menu;Menu=finishSave;WindowsMode=0
 </t>
         </r>
       </text>
@@ -13956,7 +13956,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="1465">
   <si>
     <t>设定温度±2℃.有校正时温度计入，
 无校正时计入“无”</t>
@@ -18469,12 +18469,18 @@
   <si>
     <t xml:space="preserve">        &lt;remarksValue6&gt;&lt;/remarksValue6&gt;        &lt;remarksValue7&gt;&lt;/remarksValue7&gt;        &lt;remarksValue8&gt;&lt;/remarksValue8&gt;        &lt;remarksValue9&gt;&lt;/remarksValue9&gt;        &lt;remarksValue10&gt;&lt;/remarksValue10&gt;        &lt;clusters&gt;&lt;/clusters&gt;      &lt;/sheet&gt;    &lt;/sheets&gt;  &lt;/top&gt;&lt;/conmas&gt;</t>
   </si>
+  <si>
+    <t>提交人</t>
+  </si>
+  <si>
+    <t>批准人</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -18487,12 +18493,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="微软雅黑 Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑 Light"/>
       <family val="2"/>
     </font>
@@ -18621,8 +18621,43 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18650,6 +18685,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19176,354 +19217,249 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="17" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -19534,68 +19470,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19606,79 +19494,217 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19687,82 +19713,123 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -21422,8 +21489,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4117340" y="15648940"/>
-          <a:ext cx="1621790" cy="598805"/>
+          <a:off x="4104640" y="15871190"/>
+          <a:ext cx="1621790" cy="592455"/>
           <a:chOff x="4117340" y="15648940"/>
           <a:chExt cx="1621790" cy="598805"/>
         </a:xfrm>
@@ -21557,8 +21624,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9093200" y="15504795"/>
-          <a:ext cx="1557020" cy="777240"/>
+          <a:off x="9086850" y="15730220"/>
+          <a:ext cx="1563370" cy="767715"/>
           <a:chOff x="9093200" y="15504795"/>
           <a:chExt cx="1557020" cy="777240"/>
         </a:xfrm>
@@ -23011,8 +23078,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="20399375" y="14678025"/>
-          <a:ext cx="1825625" cy="1847850"/>
+          <a:off x="20462875" y="14890750"/>
+          <a:ext cx="1838325" cy="1847850"/>
           <a:chOff x="20399375" y="14678025"/>
           <a:chExt cx="1825625" cy="1847850"/>
         </a:xfrm>
@@ -24703,7 +24770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A96" zoomScale="75" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A75" zoomScale="75" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Y75" sqref="Y75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
@@ -25049,134 +25118,126 @@
       <c r="S1" s="67"/>
       <c r="T1" s="67"/>
       <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
+      <c r="X1" s="214"/>
+      <c r="Y1" s="214"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="214"/>
+      <c r="AB1" s="214"/>
+      <c r="AC1" s="214"/>
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="215"/>
+      <c r="AH1" s="215"/>
+      <c r="AI1" s="215"/>
+      <c r="AJ1" s="216"/>
+      <c r="AK1" s="217"/>
+      <c r="AL1" s="217"/>
     </row>
     <row r="2" spans="1:45" ht="27.75" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="139" t="s">
+      <c r="B2" s="150"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="145" t="s">
+      <c r="F2" s="150"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="145"/>
-      <c r="K2" s="146" t="str">
+      <c r="J2" s="155"/>
+      <c r="K2" s="156" t="str">
         <f>IF(COUNTA(C2,G2,C3,G3)&gt;3,"正常","")</f>
         <v/>
       </c>
-      <c r="L2" s="146"/>
+      <c r="L2" s="156"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
-      <c r="O2" s="149" t="s">
+      <c r="O2" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
       <c r="U2" s="42"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="94" t="s">
+      <c r="X2" s="199" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="95" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="207"/>
+      <c r="AG2" s="208"/>
+      <c r="AH2" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="103" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="102"/>
+      <c r="AI2" s="210"/>
+      <c r="AJ2" s="211"/>
+      <c r="AK2" s="211"/>
+      <c r="AL2" s="211"/>
     </row>
     <row r="3" spans="1:45" ht="27.75" customHeight="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="139" t="s">
+      <c r="B3" s="150"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="145" t="s">
+      <c r="F3" s="150"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="145"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="148"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="158"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
       <c r="U3" s="42"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="102"/>
-      <c r="AL3" s="102"/>
+      <c r="X3" s="199" t="s">
+        <v>1464</v>
+      </c>
+      <c r="Y3" s="200"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="204"/>
+      <c r="AD3" s="205" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="212"/>
+      <c r="AG3" s="213"/>
+      <c r="AH3" s="209" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" s="210"/>
+      <c r="AJ3" s="211"/>
+      <c r="AK3" s="211"/>
+      <c r="AL3" s="211"/>
     </row>
     <row r="4" spans="1:45" ht="9.75" customHeight="1" thickBot="1">
       <c r="A4" s="55"/>
@@ -25206,155 +25267,155 @@
       <c r="W4" s="43"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-      <c r="AP4" s="96" t="s">
+      <c r="AP4" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="98" t="s">
+      <c r="AQ4" s="162"/>
+      <c r="AR4" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:45" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="131" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="123" t="s">
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="O5" s="123">
+      <c r="O5" s="107">
         <v>1</v>
       </c>
-      <c r="P5" s="123">
+      <c r="P5" s="107">
         <v>2</v>
       </c>
-      <c r="Q5" s="123">
+      <c r="Q5" s="107">
         <v>3</v>
       </c>
-      <c r="R5" s="123">
+      <c r="R5" s="107">
         <v>4</v>
       </c>
-      <c r="S5" s="123">
+      <c r="S5" s="107">
         <v>5</v>
       </c>
-      <c r="T5" s="123">
+      <c r="T5" s="107">
         <v>6</v>
       </c>
-      <c r="U5" s="105">
+      <c r="U5" s="135">
         <v>7</v>
       </c>
-      <c r="V5" s="106"/>
-      <c r="W5" s="105">
+      <c r="V5" s="136"/>
+      <c r="W5" s="135">
         <v>8</v>
       </c>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="105">
+      <c r="X5" s="136"/>
+      <c r="Y5" s="135">
         <v>9</v>
       </c>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="105">
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="135">
         <v>10</v>
       </c>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="105">
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="135">
         <v>11</v>
       </c>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="105">
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="135">
         <v>12</v>
       </c>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="105">
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="135">
         <v>13</v>
       </c>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="105">
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="135">
         <v>14</v>
       </c>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="105">
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="135">
         <v>15</v>
       </c>
-      <c r="AL5" s="106"/>
-      <c r="AP5" s="99"/>
-      <c r="AQ5" s="100"/>
-      <c r="AR5" s="98"/>
+      <c r="AL5" s="136"/>
+      <c r="AP5" s="164"/>
+      <c r="AQ5" s="165"/>
+      <c r="AR5" s="163"/>
     </row>
     <row r="6" spans="1:45" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="32"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="107"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="107"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="107"/>
-      <c r="AJ6" s="108"/>
-      <c r="AK6" s="107"/>
-      <c r="AL6" s="108"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="137"/>
+      <c r="V6" s="138"/>
+      <c r="W6" s="137"/>
+      <c r="X6" s="138"/>
+      <c r="Y6" s="137"/>
+      <c r="Z6" s="138"/>
+      <c r="AA6" s="137"/>
+      <c r="AB6" s="138"/>
+      <c r="AC6" s="137"/>
+      <c r="AD6" s="138"/>
+      <c r="AE6" s="137"/>
+      <c r="AF6" s="138"/>
+      <c r="AG6" s="137"/>
+      <c r="AH6" s="138"/>
+      <c r="AI6" s="137"/>
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="137"/>
+      <c r="AL6" s="138"/>
     </row>
     <row r="7" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="160"/>
-      <c r="C7" s="128" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="136" t="s">
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="138"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="120"/>
       <c r="N7" s="34" t="s">
         <v>26</v>
       </c>
@@ -25364,47 +25425,47 @@
       <c r="R7" s="34"/>
       <c r="S7" s="68"/>
       <c r="T7" s="34"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="114"/>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="116"/>
-      <c r="AG7" s="113"/>
-      <c r="AH7" s="114"/>
-      <c r="AI7" s="115"/>
-      <c r="AJ7" s="116"/>
-      <c r="AK7" s="113"/>
-      <c r="AL7" s="114"/>
+      <c r="U7" s="139"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="145"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="145"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="139"/>
+      <c r="AD7" s="140"/>
+      <c r="AE7" s="145"/>
+      <c r="AF7" s="143"/>
+      <c r="AG7" s="139"/>
+      <c r="AH7" s="140"/>
+      <c r="AI7" s="145"/>
+      <c r="AJ7" s="143"/>
+      <c r="AK7" s="139"/>
+      <c r="AL7" s="140"/>
       <c r="AP7" s="33"/>
       <c r="AQ7" s="33"/>
       <c r="AR7" s="33"/>
       <c r="AS7" s="33"/>
     </row>
     <row r="8" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A8" s="161"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="128" t="s">
+      <c r="A8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="136" t="s">
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="138"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="120"/>
       <c r="N8" s="50" t="s">
         <v>79</v>
       </c>
@@ -25414,49 +25475,49 @@
       <c r="R8" s="31"/>
       <c r="S8" s="65"/>
       <c r="T8" s="31"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="113"/>
-      <c r="Z8" s="114"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="113"/>
-      <c r="AD8" s="114"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="116"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="114"/>
-      <c r="AI8" s="115"/>
-      <c r="AJ8" s="116"/>
-      <c r="AK8" s="113"/>
-      <c r="AL8" s="114"/>
-      <c r="AP8" s="170" t="s">
+      <c r="U8" s="139"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="139"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="139"/>
+      <c r="AD8" s="140"/>
+      <c r="AE8" s="145"/>
+      <c r="AF8" s="143"/>
+      <c r="AG8" s="139"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="145"/>
+      <c r="AJ8" s="143"/>
+      <c r="AK8" s="139"/>
+      <c r="AL8" s="140"/>
+      <c r="AP8" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="AQ8" s="171"/>
-      <c r="AR8" s="171"/>
-      <c r="AS8" s="171"/>
+      <c r="AQ8" s="97"/>
+      <c r="AR8" s="97"/>
+      <c r="AS8" s="97"/>
     </row>
     <row r="9" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A9" s="161"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="128" t="s">
+      <c r="A9" s="114"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="136" t="s">
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="138"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="120"/>
       <c r="N9" s="69" t="s">
         <v>107</v>
       </c>
@@ -25466,47 +25527,47 @@
       <c r="R9" s="31"/>
       <c r="S9" s="65"/>
       <c r="T9" s="31"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="115"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="114"/>
-      <c r="AA9" s="115"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="115"/>
-      <c r="AF9" s="116"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="114"/>
-      <c r="AI9" s="115"/>
-      <c r="AJ9" s="116"/>
-      <c r="AK9" s="113"/>
-      <c r="AL9" s="114"/>
-      <c r="AP9" s="171"/>
-      <c r="AQ9" s="171"/>
-      <c r="AR9" s="171"/>
-      <c r="AS9" s="171"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="143"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="145"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="139"/>
+      <c r="AD9" s="140"/>
+      <c r="AE9" s="145"/>
+      <c r="AF9" s="143"/>
+      <c r="AG9" s="139"/>
+      <c r="AH9" s="140"/>
+      <c r="AI9" s="145"/>
+      <c r="AJ9" s="143"/>
+      <c r="AK9" s="139"/>
+      <c r="AL9" s="140"/>
+      <c r="AP9" s="97"/>
+      <c r="AQ9" s="97"/>
+      <c r="AR9" s="97"/>
+      <c r="AS9" s="97"/>
     </row>
     <row r="10" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A10" s="161"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="128" t="s">
+      <c r="A10" s="114"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="136" t="s">
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="138"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="120"/>
       <c r="N10" s="31" t="s">
         <v>46</v>
       </c>
@@ -25516,47 +25577,47 @@
       <c r="R10" s="59"/>
       <c r="S10" s="85"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="116"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="116"/>
-      <c r="AC10" s="117"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="117"/>
-      <c r="AH10" s="114"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="116"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="114"/>
-      <c r="AP10" s="171"/>
-      <c r="AQ10" s="171"/>
-      <c r="AR10" s="171"/>
-      <c r="AS10" s="171"/>
+      <c r="U10" s="146"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="144"/>
+      <c r="X10" s="143"/>
+      <c r="Y10" s="146"/>
+      <c r="Z10" s="140"/>
+      <c r="AA10" s="144"/>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="146"/>
+      <c r="AD10" s="140"/>
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="143"/>
+      <c r="AG10" s="146"/>
+      <c r="AH10" s="140"/>
+      <c r="AI10" s="144"/>
+      <c r="AJ10" s="143"/>
+      <c r="AK10" s="146"/>
+      <c r="AL10" s="140"/>
+      <c r="AP10" s="97"/>
+      <c r="AQ10" s="97"/>
+      <c r="AR10" s="97"/>
+      <c r="AS10" s="97"/>
     </row>
     <row r="11" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A11" s="161"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="128" t="s">
+      <c r="A11" s="114"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="136" t="s">
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="138"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="120"/>
       <c r="N11" s="76" t="s">
         <v>44</v>
       </c>
@@ -25566,47 +25627,47 @@
       <c r="R11" s="89"/>
       <c r="S11" s="88"/>
       <c r="T11" s="89"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="119"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="120"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="114"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="116"/>
-      <c r="AG11" s="119"/>
-      <c r="AH11" s="114"/>
-      <c r="AI11" s="120"/>
-      <c r="AJ11" s="116"/>
-      <c r="AK11" s="119"/>
-      <c r="AL11" s="114"/>
-      <c r="AP11" s="171"/>
-      <c r="AQ11" s="171"/>
-      <c r="AR11" s="171"/>
-      <c r="AS11" s="171"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="142"/>
+      <c r="X11" s="143"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="142"/>
+      <c r="AB11" s="143"/>
+      <c r="AC11" s="160"/>
+      <c r="AD11" s="140"/>
+      <c r="AE11" s="142"/>
+      <c r="AF11" s="143"/>
+      <c r="AG11" s="160"/>
+      <c r="AH11" s="140"/>
+      <c r="AI11" s="142"/>
+      <c r="AJ11" s="143"/>
+      <c r="AK11" s="160"/>
+      <c r="AL11" s="140"/>
+      <c r="AP11" s="97"/>
+      <c r="AQ11" s="97"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="97"/>
     </row>
     <row r="12" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A12" s="161"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="128" t="s">
+      <c r="A12" s="114"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="136" t="s">
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="138"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="120"/>
       <c r="N12" s="31" t="s">
         <v>21</v>
       </c>
@@ -25616,47 +25677,47 @@
       <c r="R12" s="59"/>
       <c r="S12" s="85"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="114"/>
-      <c r="AA12" s="118"/>
-      <c r="AB12" s="116"/>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="114"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="116"/>
-      <c r="AG12" s="117"/>
-      <c r="AH12" s="114"/>
-      <c r="AI12" s="118"/>
-      <c r="AJ12" s="116"/>
-      <c r="AK12" s="117"/>
-      <c r="AL12" s="114"/>
-      <c r="AP12" s="171"/>
-      <c r="AQ12" s="171"/>
-      <c r="AR12" s="171"/>
-      <c r="AS12" s="171"/>
+      <c r="U12" s="146"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="144"/>
+      <c r="X12" s="143"/>
+      <c r="Y12" s="146"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="144"/>
+      <c r="AB12" s="143"/>
+      <c r="AC12" s="146"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="144"/>
+      <c r="AF12" s="143"/>
+      <c r="AG12" s="146"/>
+      <c r="AH12" s="140"/>
+      <c r="AI12" s="144"/>
+      <c r="AJ12" s="143"/>
+      <c r="AK12" s="146"/>
+      <c r="AL12" s="140"/>
+      <c r="AP12" s="97"/>
+      <c r="AQ12" s="97"/>
+      <c r="AR12" s="97"/>
+      <c r="AS12" s="97"/>
     </row>
     <row r="13" spans="1:45" ht="34.5" customHeight="1">
-      <c r="A13" s="161"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="128" t="s">
+      <c r="A13" s="114"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="136" t="s">
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="138"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="120"/>
       <c r="N13" s="31">
         <v>371</v>
       </c>
@@ -25666,47 +25727,47 @@
       <c r="R13" s="31"/>
       <c r="S13" s="65"/>
       <c r="T13" s="31"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="115"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="114"/>
-      <c r="AA13" s="115"/>
-      <c r="AB13" s="116"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="114"/>
-      <c r="AE13" s="115"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="113"/>
-      <c r="AH13" s="114"/>
-      <c r="AI13" s="115"/>
-      <c r="AJ13" s="116"/>
-      <c r="AK13" s="113"/>
-      <c r="AL13" s="114"/>
-      <c r="AP13" s="171"/>
-      <c r="AQ13" s="171"/>
-      <c r="AR13" s="171"/>
-      <c r="AS13" s="171"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="143"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="145"/>
+      <c r="AB13" s="143"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="143"/>
+      <c r="AG13" s="139"/>
+      <c r="AH13" s="140"/>
+      <c r="AI13" s="145"/>
+      <c r="AJ13" s="143"/>
+      <c r="AK13" s="139"/>
+      <c r="AL13" s="140"/>
+      <c r="AP13" s="97"/>
+      <c r="AQ13" s="97"/>
+      <c r="AR13" s="97"/>
+      <c r="AS13" s="97"/>
     </row>
     <row r="14" spans="1:45" ht="36" customHeight="1">
-      <c r="A14" s="161"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="128" t="s">
+      <c r="A14" s="114"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="136" t="s">
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="138"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="120"/>
       <c r="N14" s="14" t="s">
         <v>76</v>
       </c>
@@ -25718,47 +25779,47 @@
       <c r="R14" s="31"/>
       <c r="S14" s="65"/>
       <c r="T14" s="31"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="115"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="114"/>
-      <c r="AA14" s="115"/>
-      <c r="AB14" s="116"/>
-      <c r="AC14" s="113"/>
-      <c r="AD14" s="114"/>
-      <c r="AE14" s="115"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="113"/>
-      <c r="AH14" s="114"/>
-      <c r="AI14" s="115"/>
-      <c r="AJ14" s="116"/>
-      <c r="AK14" s="113"/>
-      <c r="AL14" s="114"/>
-      <c r="AP14" s="171"/>
-      <c r="AQ14" s="171"/>
-      <c r="AR14" s="171"/>
-      <c r="AS14" s="171"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="140"/>
+      <c r="W14" s="145"/>
+      <c r="X14" s="143"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="145"/>
+      <c r="AB14" s="143"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="145"/>
+      <c r="AF14" s="143"/>
+      <c r="AG14" s="139"/>
+      <c r="AH14" s="140"/>
+      <c r="AI14" s="145"/>
+      <c r="AJ14" s="143"/>
+      <c r="AK14" s="139"/>
+      <c r="AL14" s="140"/>
+      <c r="AP14" s="97"/>
+      <c r="AQ14" s="97"/>
+      <c r="AR14" s="97"/>
+      <c r="AS14" s="97"/>
     </row>
     <row r="15" spans="1:45" ht="36" customHeight="1">
-      <c r="A15" s="161"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="128" t="s">
+      <c r="A15" s="114"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="150" t="s">
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="138"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="120"/>
       <c r="N15" s="31">
         <v>372</v>
       </c>
@@ -25768,47 +25829,47 @@
       <c r="R15" s="31"/>
       <c r="S15" s="65"/>
       <c r="T15" s="31"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="115"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="114"/>
-      <c r="AA15" s="115"/>
-      <c r="AB15" s="116"/>
-      <c r="AC15" s="113"/>
-      <c r="AD15" s="114"/>
-      <c r="AE15" s="115"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="113"/>
-      <c r="AH15" s="114"/>
-      <c r="AI15" s="115"/>
-      <c r="AJ15" s="116"/>
-      <c r="AK15" s="113"/>
-      <c r="AL15" s="114"/>
-      <c r="AP15" s="171"/>
-      <c r="AQ15" s="171"/>
-      <c r="AR15" s="171"/>
-      <c r="AS15" s="171"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="140"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="140"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="140"/>
+      <c r="AE15" s="145"/>
+      <c r="AF15" s="143"/>
+      <c r="AG15" s="139"/>
+      <c r="AH15" s="140"/>
+      <c r="AI15" s="145"/>
+      <c r="AJ15" s="143"/>
+      <c r="AK15" s="139"/>
+      <c r="AL15" s="140"/>
+      <c r="AP15" s="97"/>
+      <c r="AQ15" s="97"/>
+      <c r="AR15" s="97"/>
+      <c r="AS15" s="97"/>
     </row>
     <row r="16" spans="1:45" ht="36" customHeight="1">
-      <c r="A16" s="161"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="128" t="s">
+      <c r="A16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="150" t="s">
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="138"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="120"/>
       <c r="N16" s="31"/>
       <c r="O16" s="65"/>
       <c r="P16" s="31"/>
@@ -25816,47 +25877,47 @@
       <c r="R16" s="31"/>
       <c r="S16" s="65"/>
       <c r="T16" s="31"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="115"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="114"/>
-      <c r="AA16" s="115"/>
-      <c r="AB16" s="116"/>
-      <c r="AC16" s="113"/>
-      <c r="AD16" s="114"/>
-      <c r="AE16" s="115"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="113"/>
-      <c r="AH16" s="114"/>
-      <c r="AI16" s="115"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="113"/>
-      <c r="AL16" s="114"/>
-      <c r="AP16" s="171"/>
-      <c r="AQ16" s="171"/>
-      <c r="AR16" s="171"/>
-      <c r="AS16" s="171"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="140"/>
+      <c r="W16" s="145"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="140"/>
+      <c r="AA16" s="145"/>
+      <c r="AB16" s="143"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="140"/>
+      <c r="AE16" s="145"/>
+      <c r="AF16" s="143"/>
+      <c r="AG16" s="139"/>
+      <c r="AH16" s="140"/>
+      <c r="AI16" s="145"/>
+      <c r="AJ16" s="143"/>
+      <c r="AK16" s="139"/>
+      <c r="AL16" s="140"/>
+      <c r="AP16" s="97"/>
+      <c r="AQ16" s="97"/>
+      <c r="AR16" s="97"/>
+      <c r="AS16" s="97"/>
     </row>
     <row r="17" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A17" s="161"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="128" t="s">
+      <c r="A17" s="114"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="136" t="s">
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="138"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="120"/>
       <c r="N17" s="31" t="s">
         <v>21</v>
       </c>
@@ -25866,47 +25927,47 @@
       <c r="R17" s="59"/>
       <c r="S17" s="85"/>
       <c r="T17" s="59"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="114"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="114"/>
-      <c r="AA17" s="118"/>
-      <c r="AB17" s="116"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="114"/>
-      <c r="AE17" s="118"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="117"/>
-      <c r="AH17" s="114"/>
-      <c r="AI17" s="118"/>
-      <c r="AJ17" s="116"/>
-      <c r="AK17" s="117"/>
-      <c r="AL17" s="114"/>
-      <c r="AP17" s="171"/>
-      <c r="AQ17" s="171"/>
-      <c r="AR17" s="171"/>
-      <c r="AS17" s="171"/>
+      <c r="U17" s="146"/>
+      <c r="V17" s="140"/>
+      <c r="W17" s="144"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="146"/>
+      <c r="Z17" s="140"/>
+      <c r="AA17" s="144"/>
+      <c r="AB17" s="143"/>
+      <c r="AC17" s="146"/>
+      <c r="AD17" s="140"/>
+      <c r="AE17" s="144"/>
+      <c r="AF17" s="143"/>
+      <c r="AG17" s="146"/>
+      <c r="AH17" s="140"/>
+      <c r="AI17" s="144"/>
+      <c r="AJ17" s="143"/>
+      <c r="AK17" s="146"/>
+      <c r="AL17" s="140"/>
+      <c r="AP17" s="97"/>
+      <c r="AQ17" s="97"/>
+      <c r="AR17" s="97"/>
+      <c r="AS17" s="97"/>
     </row>
     <row r="18" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A18" s="161"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="128" t="s">
+      <c r="A18" s="114"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="136" t="s">
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="138"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="120"/>
       <c r="N18" s="31">
         <v>0.32</v>
       </c>
@@ -25916,47 +25977,47 @@
       <c r="R18" s="31"/>
       <c r="S18" s="65"/>
       <c r="T18" s="31"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="114"/>
-      <c r="W18" s="115"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="114"/>
-      <c r="AA18" s="115"/>
-      <c r="AB18" s="116"/>
-      <c r="AC18" s="113"/>
-      <c r="AD18" s="114"/>
-      <c r="AE18" s="115"/>
-      <c r="AF18" s="116"/>
-      <c r="AG18" s="113"/>
-      <c r="AH18" s="114"/>
-      <c r="AI18" s="115"/>
-      <c r="AJ18" s="116"/>
-      <c r="AK18" s="113"/>
-      <c r="AL18" s="114"/>
-      <c r="AP18" s="171"/>
-      <c r="AQ18" s="171"/>
-      <c r="AR18" s="171"/>
-      <c r="AS18" s="171"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="140"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="143"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="140"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="143"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="140"/>
+      <c r="AE18" s="145"/>
+      <c r="AF18" s="143"/>
+      <c r="AG18" s="139"/>
+      <c r="AH18" s="140"/>
+      <c r="AI18" s="145"/>
+      <c r="AJ18" s="143"/>
+      <c r="AK18" s="139"/>
+      <c r="AL18" s="140"/>
+      <c r="AP18" s="97"/>
+      <c r="AQ18" s="97"/>
+      <c r="AR18" s="97"/>
+      <c r="AS18" s="97"/>
     </row>
     <row r="19" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A19" s="161"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="128" t="s">
+      <c r="A19" s="114"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="136" t="s">
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="138"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="120"/>
       <c r="N19" s="31" t="s">
         <v>21</v>
       </c>
@@ -25966,47 +26027,47 @@
       <c r="R19" s="59"/>
       <c r="S19" s="85"/>
       <c r="T19" s="59"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="114"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="116"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="114"/>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="117"/>
-      <c r="AH19" s="114"/>
-      <c r="AI19" s="118"/>
-      <c r="AJ19" s="116"/>
-      <c r="AK19" s="117"/>
-      <c r="AL19" s="114"/>
-      <c r="AP19" s="171"/>
-      <c r="AQ19" s="171"/>
-      <c r="AR19" s="171"/>
-      <c r="AS19" s="171"/>
+      <c r="U19" s="146"/>
+      <c r="V19" s="140"/>
+      <c r="W19" s="144"/>
+      <c r="X19" s="143"/>
+      <c r="Y19" s="146"/>
+      <c r="Z19" s="140"/>
+      <c r="AA19" s="144"/>
+      <c r="AB19" s="143"/>
+      <c r="AC19" s="146"/>
+      <c r="AD19" s="140"/>
+      <c r="AE19" s="144"/>
+      <c r="AF19" s="143"/>
+      <c r="AG19" s="146"/>
+      <c r="AH19" s="140"/>
+      <c r="AI19" s="144"/>
+      <c r="AJ19" s="143"/>
+      <c r="AK19" s="146"/>
+      <c r="AL19" s="140"/>
+      <c r="AP19" s="97"/>
+      <c r="AQ19" s="97"/>
+      <c r="AR19" s="97"/>
+      <c r="AS19" s="97"/>
     </row>
     <row r="20" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A20" s="161"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="128" t="s">
+      <c r="A20" s="114"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="136" t="s">
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="138"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="120"/>
       <c r="N20" s="31" t="s">
         <v>21</v>
       </c>
@@ -26016,47 +26077,47 @@
       <c r="R20" s="59"/>
       <c r="S20" s="85"/>
       <c r="T20" s="59"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="114"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="114"/>
-      <c r="AE20" s="118"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="117"/>
-      <c r="AH20" s="114"/>
-      <c r="AI20" s="118"/>
-      <c r="AJ20" s="116"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="114"/>
-      <c r="AP20" s="171"/>
-      <c r="AQ20" s="171"/>
-      <c r="AR20" s="171"/>
-      <c r="AS20" s="171"/>
+      <c r="U20" s="146"/>
+      <c r="V20" s="140"/>
+      <c r="W20" s="144"/>
+      <c r="X20" s="143"/>
+      <c r="Y20" s="146"/>
+      <c r="Z20" s="140"/>
+      <c r="AA20" s="144"/>
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="146"/>
+      <c r="AD20" s="140"/>
+      <c r="AE20" s="144"/>
+      <c r="AF20" s="143"/>
+      <c r="AG20" s="146"/>
+      <c r="AH20" s="140"/>
+      <c r="AI20" s="144"/>
+      <c r="AJ20" s="143"/>
+      <c r="AK20" s="146"/>
+      <c r="AL20" s="140"/>
+      <c r="AP20" s="97"/>
+      <c r="AQ20" s="97"/>
+      <c r="AR20" s="97"/>
+      <c r="AS20" s="97"/>
     </row>
     <row r="21" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A21" s="161"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="128" t="s">
+      <c r="A21" s="114"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="136" t="s">
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="138"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="120"/>
       <c r="N21" s="31" t="s">
         <v>21</v>
       </c>
@@ -26066,47 +26127,47 @@
       <c r="R21" s="59"/>
       <c r="S21" s="85"/>
       <c r="T21" s="59"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="114"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="114"/>
-      <c r="AE21" s="118"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="117"/>
-      <c r="AH21" s="114"/>
-      <c r="AI21" s="118"/>
-      <c r="AJ21" s="116"/>
-      <c r="AK21" s="117"/>
-      <c r="AL21" s="114"/>
-      <c r="AP21" s="171"/>
-      <c r="AQ21" s="171"/>
-      <c r="AR21" s="171"/>
-      <c r="AS21" s="171"/>
+      <c r="U21" s="146"/>
+      <c r="V21" s="140"/>
+      <c r="W21" s="144"/>
+      <c r="X21" s="143"/>
+      <c r="Y21" s="146"/>
+      <c r="Z21" s="140"/>
+      <c r="AA21" s="144"/>
+      <c r="AB21" s="143"/>
+      <c r="AC21" s="146"/>
+      <c r="AD21" s="140"/>
+      <c r="AE21" s="144"/>
+      <c r="AF21" s="143"/>
+      <c r="AG21" s="146"/>
+      <c r="AH21" s="140"/>
+      <c r="AI21" s="144"/>
+      <c r="AJ21" s="143"/>
+      <c r="AK21" s="146"/>
+      <c r="AL21" s="140"/>
+      <c r="AP21" s="97"/>
+      <c r="AQ21" s="97"/>
+      <c r="AR21" s="97"/>
+      <c r="AS21" s="97"/>
     </row>
     <row r="22" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A22" s="161"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="128" t="s">
+      <c r="A22" s="114"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="136" t="s">
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="138"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="120"/>
       <c r="N22" s="31" t="s">
         <v>21</v>
       </c>
@@ -26116,47 +26177,47 @@
       <c r="R22" s="59"/>
       <c r="S22" s="85"/>
       <c r="T22" s="59"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="116"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="114"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="116"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="114"/>
-      <c r="AE22" s="118"/>
-      <c r="AF22" s="116"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="114"/>
-      <c r="AI22" s="118"/>
-      <c r="AJ22" s="116"/>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="114"/>
-      <c r="AP22" s="171"/>
-      <c r="AQ22" s="171"/>
-      <c r="AR22" s="171"/>
-      <c r="AS22" s="171"/>
+      <c r="U22" s="146"/>
+      <c r="V22" s="140"/>
+      <c r="W22" s="144"/>
+      <c r="X22" s="143"/>
+      <c r="Y22" s="146"/>
+      <c r="Z22" s="140"/>
+      <c r="AA22" s="144"/>
+      <c r="AB22" s="143"/>
+      <c r="AC22" s="146"/>
+      <c r="AD22" s="140"/>
+      <c r="AE22" s="144"/>
+      <c r="AF22" s="143"/>
+      <c r="AG22" s="146"/>
+      <c r="AH22" s="140"/>
+      <c r="AI22" s="144"/>
+      <c r="AJ22" s="143"/>
+      <c r="AK22" s="146"/>
+      <c r="AL22" s="140"/>
+      <c r="AP22" s="97"/>
+      <c r="AQ22" s="97"/>
+      <c r="AR22" s="97"/>
+      <c r="AS22" s="97"/>
     </row>
     <row r="23" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A23" s="161"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="128" t="s">
+      <c r="A23" s="114"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="136" t="s">
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="138"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="120"/>
       <c r="N23" s="31" t="s">
         <v>21</v>
       </c>
@@ -26166,47 +26227,47 @@
       <c r="R23" s="59"/>
       <c r="S23" s="85"/>
       <c r="T23" s="59"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="114"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="114"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="116"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="114"/>
-      <c r="AE23" s="118"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="117"/>
-      <c r="AH23" s="114"/>
-      <c r="AI23" s="118"/>
-      <c r="AJ23" s="116"/>
-      <c r="AK23" s="117"/>
-      <c r="AL23" s="114"/>
-      <c r="AP23" s="171"/>
-      <c r="AQ23" s="171"/>
-      <c r="AR23" s="171"/>
-      <c r="AS23" s="171"/>
+      <c r="U23" s="146"/>
+      <c r="V23" s="140"/>
+      <c r="W23" s="144"/>
+      <c r="X23" s="143"/>
+      <c r="Y23" s="146"/>
+      <c r="Z23" s="140"/>
+      <c r="AA23" s="144"/>
+      <c r="AB23" s="143"/>
+      <c r="AC23" s="146"/>
+      <c r="AD23" s="140"/>
+      <c r="AE23" s="144"/>
+      <c r="AF23" s="143"/>
+      <c r="AG23" s="146"/>
+      <c r="AH23" s="140"/>
+      <c r="AI23" s="144"/>
+      <c r="AJ23" s="143"/>
+      <c r="AK23" s="146"/>
+      <c r="AL23" s="140"/>
+      <c r="AP23" s="97"/>
+      <c r="AQ23" s="97"/>
+      <c r="AR23" s="97"/>
+      <c r="AS23" s="97"/>
     </row>
     <row r="24" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A24" s="161"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="128" t="s">
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="136" t="s">
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="138"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="120"/>
       <c r="N24" s="31" t="s">
         <v>21</v>
       </c>
@@ -26216,47 +26277,47 @@
       <c r="R24" s="59"/>
       <c r="S24" s="85"/>
       <c r="T24" s="59"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="114"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="114"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" s="116"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="114"/>
-      <c r="AE24" s="118"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="117"/>
-      <c r="AH24" s="114"/>
-      <c r="AI24" s="118"/>
-      <c r="AJ24" s="116"/>
-      <c r="AK24" s="117"/>
-      <c r="AL24" s="114"/>
-      <c r="AP24" s="171"/>
-      <c r="AQ24" s="171"/>
-      <c r="AR24" s="171"/>
-      <c r="AS24" s="171"/>
+      <c r="U24" s="146"/>
+      <c r="V24" s="140"/>
+      <c r="W24" s="144"/>
+      <c r="X24" s="143"/>
+      <c r="Y24" s="146"/>
+      <c r="Z24" s="140"/>
+      <c r="AA24" s="144"/>
+      <c r="AB24" s="143"/>
+      <c r="AC24" s="146"/>
+      <c r="AD24" s="140"/>
+      <c r="AE24" s="144"/>
+      <c r="AF24" s="143"/>
+      <c r="AG24" s="146"/>
+      <c r="AH24" s="140"/>
+      <c r="AI24" s="144"/>
+      <c r="AJ24" s="143"/>
+      <c r="AK24" s="146"/>
+      <c r="AL24" s="140"/>
+      <c r="AP24" s="97"/>
+      <c r="AQ24" s="97"/>
+      <c r="AR24" s="97"/>
+      <c r="AS24" s="97"/>
     </row>
     <row r="25" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A25" s="161"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="128" t="s">
+      <c r="A25" s="114"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="136" t="s">
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="138"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="120"/>
       <c r="N25" s="31" t="s">
         <v>21</v>
       </c>
@@ -26266,47 +26327,47 @@
       <c r="R25" s="59"/>
       <c r="S25" s="85"/>
       <c r="T25" s="59"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="114"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="116"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="114"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="116"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="114"/>
-      <c r="AE25" s="118"/>
-      <c r="AF25" s="116"/>
-      <c r="AG25" s="117"/>
-      <c r="AH25" s="114"/>
-      <c r="AI25" s="118"/>
-      <c r="AJ25" s="116"/>
-      <c r="AK25" s="117"/>
-      <c r="AL25" s="114"/>
-      <c r="AP25" s="171"/>
-      <c r="AQ25" s="171"/>
-      <c r="AR25" s="171"/>
-      <c r="AS25" s="171"/>
+      <c r="U25" s="146"/>
+      <c r="V25" s="140"/>
+      <c r="W25" s="144"/>
+      <c r="X25" s="143"/>
+      <c r="Y25" s="146"/>
+      <c r="Z25" s="140"/>
+      <c r="AA25" s="144"/>
+      <c r="AB25" s="143"/>
+      <c r="AC25" s="146"/>
+      <c r="AD25" s="140"/>
+      <c r="AE25" s="144"/>
+      <c r="AF25" s="143"/>
+      <c r="AG25" s="146"/>
+      <c r="AH25" s="140"/>
+      <c r="AI25" s="144"/>
+      <c r="AJ25" s="143"/>
+      <c r="AK25" s="146"/>
+      <c r="AL25" s="140"/>
+      <c r="AP25" s="97"/>
+      <c r="AQ25" s="97"/>
+      <c r="AR25" s="97"/>
+      <c r="AS25" s="97"/>
     </row>
     <row r="26" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A26" s="161"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="165" t="s">
+      <c r="A26" s="114"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="155" t="s">
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="157"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="123"/>
       <c r="N26" s="31" t="s">
         <v>78</v>
       </c>
@@ -26316,47 +26377,47 @@
       <c r="R26" s="31"/>
       <c r="S26" s="65"/>
       <c r="T26" s="31"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="114"/>
-      <c r="W26" s="115"/>
-      <c r="X26" s="116"/>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="114"/>
-      <c r="AA26" s="115"/>
-      <c r="AB26" s="116"/>
-      <c r="AC26" s="113"/>
-      <c r="AD26" s="114"/>
-      <c r="AE26" s="115"/>
-      <c r="AF26" s="116"/>
-      <c r="AG26" s="113"/>
-      <c r="AH26" s="114"/>
-      <c r="AI26" s="115"/>
-      <c r="AJ26" s="116"/>
-      <c r="AK26" s="113"/>
-      <c r="AL26" s="114"/>
-      <c r="AP26" s="171"/>
-      <c r="AQ26" s="171"/>
-      <c r="AR26" s="171"/>
-      <c r="AS26" s="171"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="140"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="143"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="140"/>
+      <c r="AA26" s="145"/>
+      <c r="AB26" s="143"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="140"/>
+      <c r="AE26" s="145"/>
+      <c r="AF26" s="143"/>
+      <c r="AG26" s="139"/>
+      <c r="AH26" s="140"/>
+      <c r="AI26" s="145"/>
+      <c r="AJ26" s="143"/>
+      <c r="AK26" s="139"/>
+      <c r="AL26" s="140"/>
+      <c r="AP26" s="97"/>
+      <c r="AQ26" s="97"/>
+      <c r="AR26" s="97"/>
+      <c r="AS26" s="97"/>
     </row>
     <row r="27" spans="1:45" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A27" s="163"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="152" t="s">
+      <c r="A27" s="116"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="111" t="s">
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="112"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="128"/>
       <c r="N27" s="82" t="s">
         <v>78</v>
       </c>
@@ -26366,29 +26427,29 @@
       <c r="R27" s="82"/>
       <c r="S27" s="15"/>
       <c r="T27" s="82"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="111"/>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="111"/>
-      <c r="AB27" s="112"/>
-      <c r="AC27" s="109"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="111"/>
-      <c r="AF27" s="112"/>
-      <c r="AG27" s="109"/>
-      <c r="AH27" s="110"/>
-      <c r="AI27" s="111"/>
-      <c r="AJ27" s="112"/>
-      <c r="AK27" s="109"/>
-      <c r="AL27" s="110"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="126"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="126"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="147"/>
+      <c r="AD27" s="148"/>
+      <c r="AE27" s="126"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="147"/>
+      <c r="AH27" s="148"/>
+      <c r="AI27" s="126"/>
+      <c r="AJ27" s="128"/>
+      <c r="AK27" s="147"/>
+      <c r="AL27" s="148"/>
       <c r="AM27" s="61"/>
-      <c r="AP27" s="171"/>
-      <c r="AQ27" s="171"/>
-      <c r="AR27" s="171"/>
-      <c r="AS27" s="171"/>
+      <c r="AP27" s="97"/>
+      <c r="AQ27" s="97"/>
+      <c r="AR27" s="97"/>
+      <c r="AS27" s="97"/>
     </row>
     <row r="28" spans="1:45" s="84" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="A28" s="3"/>
@@ -26429,149 +26490,149 @@
       <c r="AJ28" s="80"/>
       <c r="AK28" s="80"/>
       <c r="AL28" s="80"/>
-      <c r="AP28" s="171"/>
-      <c r="AQ28" s="171"/>
-      <c r="AR28" s="171"/>
-      <c r="AS28" s="171"/>
+      <c r="AP28" s="97"/>
+      <c r="AQ28" s="97"/>
+      <c r="AR28" s="97"/>
+      <c r="AS28" s="97"/>
     </row>
     <row r="29" spans="1:45" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="131" t="s">
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="123">
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="107">
         <v>16</v>
       </c>
-      <c r="O29" s="123">
+      <c r="O29" s="107">
         <v>17</v>
       </c>
-      <c r="P29" s="123">
+      <c r="P29" s="107">
         <v>18</v>
       </c>
-      <c r="Q29" s="123">
+      <c r="Q29" s="107">
         <v>19</v>
       </c>
-      <c r="R29" s="123">
+      <c r="R29" s="107">
         <v>20</v>
       </c>
-      <c r="S29" s="123">
+      <c r="S29" s="107">
         <v>21</v>
       </c>
-      <c r="T29" s="123">
+      <c r="T29" s="107">
         <v>22</v>
       </c>
-      <c r="U29" s="105">
+      <c r="U29" s="135">
         <v>23</v>
       </c>
-      <c r="V29" s="106"/>
-      <c r="W29" s="105">
+      <c r="V29" s="136"/>
+      <c r="W29" s="135">
         <v>24</v>
       </c>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="105">
+      <c r="X29" s="136"/>
+      <c r="Y29" s="135">
         <v>25</v>
       </c>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="105">
+      <c r="Z29" s="136"/>
+      <c r="AA29" s="135">
         <v>26</v>
       </c>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="105">
+      <c r="AB29" s="136"/>
+      <c r="AC29" s="135">
         <v>27</v>
       </c>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="105">
+      <c r="AD29" s="136"/>
+      <c r="AE29" s="135">
         <v>28</v>
       </c>
-      <c r="AF29" s="106"/>
-      <c r="AG29" s="105">
+      <c r="AF29" s="136"/>
+      <c r="AG29" s="135">
         <v>29</v>
       </c>
-      <c r="AH29" s="106"/>
-      <c r="AI29" s="105">
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="135">
         <v>30</v>
       </c>
-      <c r="AJ29" s="106"/>
-      <c r="AK29" s="105">
+      <c r="AJ29" s="136"/>
+      <c r="AK29" s="135">
         <v>31</v>
       </c>
-      <c r="AL29" s="106"/>
+      <c r="AL29" s="136"/>
     </row>
     <row r="30" spans="1:45" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="124"/>
-      <c r="S30" s="124"/>
-      <c r="T30" s="124"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="107"/>
-      <c r="X30" s="108"/>
-      <c r="Y30" s="107"/>
-      <c r="Z30" s="108"/>
-      <c r="AA30" s="107"/>
-      <c r="AB30" s="108"/>
-      <c r="AC30" s="107"/>
-      <c r="AD30" s="108"/>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="108"/>
-      <c r="AG30" s="107"/>
-      <c r="AH30" s="108"/>
-      <c r="AI30" s="107"/>
-      <c r="AJ30" s="108"/>
-      <c r="AK30" s="107"/>
-      <c r="AL30" s="108"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="138"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="138"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="138"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="138"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="138"/>
+      <c r="AE30" s="137"/>
+      <c r="AF30" s="138"/>
+      <c r="AG30" s="137"/>
+      <c r="AH30" s="138"/>
+      <c r="AI30" s="137"/>
+      <c r="AJ30" s="138"/>
+      <c r="AK30" s="137"/>
+      <c r="AL30" s="138"/>
     </row>
     <row r="31" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A31" s="159" t="s">
+      <c r="A31" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="128" t="s">
+      <c r="B31" s="113"/>
+      <c r="C31" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="136" t="s">
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="138"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="120"/>
       <c r="N31" s="34"/>
       <c r="O31" s="68"/>
       <c r="P31" s="34"/>
@@ -26579,43 +26640,43 @@
       <c r="R31" s="34"/>
       <c r="S31" s="68"/>
       <c r="T31" s="34"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="115"/>
-      <c r="X31" s="116"/>
-      <c r="Y31" s="113"/>
-      <c r="Z31" s="114"/>
-      <c r="AA31" s="115"/>
-      <c r="AB31" s="116"/>
-      <c r="AC31" s="113"/>
-      <c r="AD31" s="114"/>
-      <c r="AE31" s="115"/>
-      <c r="AF31" s="116"/>
-      <c r="AG31" s="113"/>
-      <c r="AH31" s="114"/>
-      <c r="AI31" s="115"/>
-      <c r="AJ31" s="116"/>
-      <c r="AK31" s="113"/>
-      <c r="AL31" s="114"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="140"/>
+      <c r="W31" s="145"/>
+      <c r="X31" s="143"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="140"/>
+      <c r="AA31" s="145"/>
+      <c r="AB31" s="143"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="140"/>
+      <c r="AE31" s="145"/>
+      <c r="AF31" s="143"/>
+      <c r="AG31" s="139"/>
+      <c r="AH31" s="140"/>
+      <c r="AI31" s="145"/>
+      <c r="AJ31" s="143"/>
+      <c r="AK31" s="139"/>
+      <c r="AL31" s="140"/>
     </row>
     <row r="32" spans="1:45" ht="23.25" customHeight="1">
-      <c r="A32" s="161"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="128" t="s">
+      <c r="A32" s="114"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="136" t="s">
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="137"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="138"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="119"/>
+      <c r="K32" s="119"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="120"/>
       <c r="N32" s="50"/>
       <c r="O32" s="65"/>
       <c r="P32" s="31"/>
@@ -26623,43 +26684,43 @@
       <c r="R32" s="31"/>
       <c r="S32" s="65"/>
       <c r="T32" s="31"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="114"/>
-      <c r="W32" s="115"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="113"/>
-      <c r="Z32" s="114"/>
-      <c r="AA32" s="115"/>
-      <c r="AB32" s="116"/>
-      <c r="AC32" s="113"/>
-      <c r="AD32" s="114"/>
-      <c r="AE32" s="115"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="113"/>
-      <c r="AH32" s="114"/>
-      <c r="AI32" s="115"/>
-      <c r="AJ32" s="116"/>
-      <c r="AK32" s="113"/>
-      <c r="AL32" s="114"/>
+      <c r="U32" s="139"/>
+      <c r="V32" s="140"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="143"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="140"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="143"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="140"/>
+      <c r="AE32" s="145"/>
+      <c r="AF32" s="143"/>
+      <c r="AG32" s="139"/>
+      <c r="AH32" s="140"/>
+      <c r="AI32" s="145"/>
+      <c r="AJ32" s="143"/>
+      <c r="AK32" s="139"/>
+      <c r="AL32" s="140"/>
     </row>
     <row r="33" spans="1:38" ht="23.25" customHeight="1">
-      <c r="A33" s="161"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="128" t="s">
+      <c r="A33" s="114"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="136" t="s">
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="137"/>
-      <c r="L33" s="137"/>
-      <c r="M33" s="138"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="119"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="120"/>
       <c r="N33" s="69"/>
       <c r="O33" s="65"/>
       <c r="P33" s="31"/>
@@ -26667,43 +26728,43 @@
       <c r="R33" s="31"/>
       <c r="S33" s="65"/>
       <c r="T33" s="31"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="115"/>
-      <c r="X33" s="116"/>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="114"/>
-      <c r="AA33" s="115"/>
-      <c r="AB33" s="116"/>
-      <c r="AC33" s="113"/>
-      <c r="AD33" s="114"/>
-      <c r="AE33" s="115"/>
-      <c r="AF33" s="116"/>
-      <c r="AG33" s="113"/>
-      <c r="AH33" s="114"/>
-      <c r="AI33" s="115"/>
-      <c r="AJ33" s="116"/>
-      <c r="AK33" s="113"/>
-      <c r="AL33" s="114"/>
+      <c r="U33" s="139"/>
+      <c r="V33" s="140"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="143"/>
+      <c r="Y33" s="139"/>
+      <c r="Z33" s="140"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="143"/>
+      <c r="AC33" s="139"/>
+      <c r="AD33" s="140"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="143"/>
+      <c r="AG33" s="139"/>
+      <c r="AH33" s="140"/>
+      <c r="AI33" s="145"/>
+      <c r="AJ33" s="143"/>
+      <c r="AK33" s="139"/>
+      <c r="AL33" s="140"/>
     </row>
     <row r="34" spans="1:38" ht="23.25" customHeight="1">
-      <c r="A34" s="161"/>
-      <c r="B34" s="162"/>
-      <c r="C34" s="128" t="s">
+      <c r="A34" s="114"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="136" t="s">
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="137"/>
-      <c r="L34" s="137"/>
-      <c r="M34" s="138"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="120"/>
       <c r="N34" s="27"/>
       <c r="O34" s="85"/>
       <c r="P34" s="59"/>
@@ -26711,43 +26772,43 @@
       <c r="R34" s="59"/>
       <c r="S34" s="85"/>
       <c r="T34" s="59"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="114"/>
-      <c r="W34" s="118"/>
-      <c r="X34" s="116"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="114"/>
-      <c r="AA34" s="118"/>
-      <c r="AB34" s="116"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="114"/>
-      <c r="AE34" s="118"/>
-      <c r="AF34" s="116"/>
-      <c r="AG34" s="117"/>
-      <c r="AH34" s="114"/>
-      <c r="AI34" s="118"/>
-      <c r="AJ34" s="116"/>
-      <c r="AK34" s="117"/>
-      <c r="AL34" s="114"/>
+      <c r="U34" s="146"/>
+      <c r="V34" s="140"/>
+      <c r="W34" s="144"/>
+      <c r="X34" s="143"/>
+      <c r="Y34" s="146"/>
+      <c r="Z34" s="140"/>
+      <c r="AA34" s="144"/>
+      <c r="AB34" s="143"/>
+      <c r="AC34" s="146"/>
+      <c r="AD34" s="140"/>
+      <c r="AE34" s="144"/>
+      <c r="AF34" s="143"/>
+      <c r="AG34" s="146"/>
+      <c r="AH34" s="140"/>
+      <c r="AI34" s="144"/>
+      <c r="AJ34" s="143"/>
+      <c r="AK34" s="146"/>
+      <c r="AL34" s="140"/>
     </row>
     <row r="35" spans="1:38" ht="23.25" customHeight="1">
-      <c r="A35" s="161"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="128" t="s">
+      <c r="A35" s="114"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="136" t="s">
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="137"/>
-      <c r="M35" s="138"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="120"/>
       <c r="N35" s="90"/>
       <c r="O35" s="88"/>
       <c r="P35" s="89"/>
@@ -26755,43 +26816,43 @@
       <c r="R35" s="89"/>
       <c r="S35" s="88"/>
       <c r="T35" s="89"/>
-      <c r="U35" s="119"/>
-      <c r="V35" s="114"/>
-      <c r="W35" s="120"/>
-      <c r="X35" s="116"/>
-      <c r="Y35" s="119"/>
-      <c r="Z35" s="114"/>
-      <c r="AA35" s="120"/>
-      <c r="AB35" s="116"/>
-      <c r="AC35" s="119"/>
-      <c r="AD35" s="114"/>
-      <c r="AE35" s="120"/>
-      <c r="AF35" s="116"/>
-      <c r="AG35" s="119"/>
-      <c r="AH35" s="114"/>
-      <c r="AI35" s="120"/>
-      <c r="AJ35" s="116"/>
-      <c r="AK35" s="119"/>
-      <c r="AL35" s="114"/>
+      <c r="U35" s="160"/>
+      <c r="V35" s="140"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="143"/>
+      <c r="Y35" s="160"/>
+      <c r="Z35" s="140"/>
+      <c r="AA35" s="142"/>
+      <c r="AB35" s="143"/>
+      <c r="AC35" s="160"/>
+      <c r="AD35" s="140"/>
+      <c r="AE35" s="142"/>
+      <c r="AF35" s="143"/>
+      <c r="AG35" s="160"/>
+      <c r="AH35" s="140"/>
+      <c r="AI35" s="142"/>
+      <c r="AJ35" s="143"/>
+      <c r="AK35" s="160"/>
+      <c r="AL35" s="140"/>
     </row>
     <row r="36" spans="1:38" ht="23.25" customHeight="1">
-      <c r="A36" s="161"/>
-      <c r="B36" s="162"/>
-      <c r="C36" s="128" t="s">
+      <c r="A36" s="114"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="136" t="s">
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="137"/>
-      <c r="M36" s="138"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="119"/>
+      <c r="L36" s="119"/>
+      <c r="M36" s="120"/>
       <c r="N36" s="59"/>
       <c r="O36" s="85"/>
       <c r="P36" s="59"/>
@@ -26799,43 +26860,43 @@
       <c r="R36" s="59"/>
       <c r="S36" s="85"/>
       <c r="T36" s="59"/>
-      <c r="U36" s="117"/>
-      <c r="V36" s="114"/>
-      <c r="W36" s="118"/>
-      <c r="X36" s="116"/>
-      <c r="Y36" s="117"/>
-      <c r="Z36" s="114"/>
-      <c r="AA36" s="118"/>
-      <c r="AB36" s="116"/>
-      <c r="AC36" s="117"/>
-      <c r="AD36" s="114"/>
-      <c r="AE36" s="118"/>
-      <c r="AF36" s="116"/>
-      <c r="AG36" s="117"/>
-      <c r="AH36" s="114"/>
-      <c r="AI36" s="118"/>
-      <c r="AJ36" s="116"/>
-      <c r="AK36" s="117"/>
-      <c r="AL36" s="114"/>
+      <c r="U36" s="146"/>
+      <c r="V36" s="140"/>
+      <c r="W36" s="144"/>
+      <c r="X36" s="143"/>
+      <c r="Y36" s="146"/>
+      <c r="Z36" s="140"/>
+      <c r="AA36" s="144"/>
+      <c r="AB36" s="143"/>
+      <c r="AC36" s="146"/>
+      <c r="AD36" s="140"/>
+      <c r="AE36" s="144"/>
+      <c r="AF36" s="143"/>
+      <c r="AG36" s="146"/>
+      <c r="AH36" s="140"/>
+      <c r="AI36" s="144"/>
+      <c r="AJ36" s="143"/>
+      <c r="AK36" s="146"/>
+      <c r="AL36" s="140"/>
     </row>
     <row r="37" spans="1:38" ht="36" customHeight="1">
-      <c r="A37" s="161"/>
-      <c r="B37" s="162"/>
-      <c r="C37" s="128" t="s">
+      <c r="A37" s="114"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="136" t="s">
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="137"/>
-      <c r="L37" s="137"/>
-      <c r="M37" s="138"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="120"/>
       <c r="N37" s="31"/>
       <c r="O37" s="65"/>
       <c r="P37" s="31"/>
@@ -26843,43 +26904,43 @@
       <c r="R37" s="31"/>
       <c r="S37" s="65"/>
       <c r="T37" s="31"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="114"/>
-      <c r="W37" s="115"/>
-      <c r="X37" s="116"/>
-      <c r="Y37" s="113"/>
-      <c r="Z37" s="114"/>
-      <c r="AA37" s="115"/>
-      <c r="AB37" s="116"/>
-      <c r="AC37" s="113"/>
-      <c r="AD37" s="114"/>
-      <c r="AE37" s="115"/>
-      <c r="AF37" s="116"/>
-      <c r="AG37" s="113"/>
-      <c r="AH37" s="114"/>
-      <c r="AI37" s="115"/>
-      <c r="AJ37" s="116"/>
-      <c r="AK37" s="113"/>
-      <c r="AL37" s="114"/>
+      <c r="U37" s="139"/>
+      <c r="V37" s="140"/>
+      <c r="W37" s="145"/>
+      <c r="X37" s="143"/>
+      <c r="Y37" s="139"/>
+      <c r="Z37" s="140"/>
+      <c r="AA37" s="145"/>
+      <c r="AB37" s="143"/>
+      <c r="AC37" s="139"/>
+      <c r="AD37" s="140"/>
+      <c r="AE37" s="145"/>
+      <c r="AF37" s="143"/>
+      <c r="AG37" s="139"/>
+      <c r="AH37" s="140"/>
+      <c r="AI37" s="145"/>
+      <c r="AJ37" s="143"/>
+      <c r="AK37" s="139"/>
+      <c r="AL37" s="140"/>
     </row>
     <row r="38" spans="1:38" ht="36" customHeight="1">
-      <c r="A38" s="161"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="128" t="s">
+      <c r="A38" s="114"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="136" t="s">
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="137"/>
-      <c r="L38" s="137"/>
-      <c r="M38" s="138"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="120"/>
       <c r="N38" s="31"/>
       <c r="O38" s="65"/>
       <c r="P38" s="31"/>
@@ -26887,43 +26948,43 @@
       <c r="R38" s="31"/>
       <c r="S38" s="65"/>
       <c r="T38" s="31"/>
-      <c r="U38" s="113"/>
-      <c r="V38" s="114"/>
-      <c r="W38" s="115"/>
-      <c r="X38" s="116"/>
-      <c r="Y38" s="113"/>
-      <c r="Z38" s="114"/>
-      <c r="AA38" s="115"/>
-      <c r="AB38" s="116"/>
-      <c r="AC38" s="113"/>
-      <c r="AD38" s="114"/>
-      <c r="AE38" s="115"/>
-      <c r="AF38" s="116"/>
-      <c r="AG38" s="113"/>
-      <c r="AH38" s="114"/>
-      <c r="AI38" s="115"/>
-      <c r="AJ38" s="116"/>
-      <c r="AK38" s="113"/>
-      <c r="AL38" s="114"/>
+      <c r="U38" s="139"/>
+      <c r="V38" s="140"/>
+      <c r="W38" s="145"/>
+      <c r="X38" s="143"/>
+      <c r="Y38" s="139"/>
+      <c r="Z38" s="140"/>
+      <c r="AA38" s="145"/>
+      <c r="AB38" s="143"/>
+      <c r="AC38" s="139"/>
+      <c r="AD38" s="140"/>
+      <c r="AE38" s="145"/>
+      <c r="AF38" s="143"/>
+      <c r="AG38" s="139"/>
+      <c r="AH38" s="140"/>
+      <c r="AI38" s="145"/>
+      <c r="AJ38" s="143"/>
+      <c r="AK38" s="139"/>
+      <c r="AL38" s="140"/>
     </row>
     <row r="39" spans="1:38" ht="36" customHeight="1">
-      <c r="A39" s="161"/>
-      <c r="B39" s="162"/>
-      <c r="C39" s="128" t="s">
+      <c r="A39" s="114"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="150" t="s">
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="I39" s="137"/>
-      <c r="J39" s="137"/>
-      <c r="K39" s="137"/>
-      <c r="L39" s="137"/>
-      <c r="M39" s="138"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="120"/>
       <c r="N39" s="31"/>
       <c r="O39" s="65"/>
       <c r="P39" s="31"/>
@@ -26931,43 +26992,43 @@
       <c r="R39" s="31"/>
       <c r="S39" s="65"/>
       <c r="T39" s="31"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="114"/>
-      <c r="W39" s="115"/>
-      <c r="X39" s="116"/>
-      <c r="Y39" s="113"/>
-      <c r="Z39" s="114"/>
-      <c r="AA39" s="115"/>
-      <c r="AB39" s="116"/>
-      <c r="AC39" s="113"/>
-      <c r="AD39" s="114"/>
-      <c r="AE39" s="115"/>
-      <c r="AF39" s="116"/>
-      <c r="AG39" s="113"/>
-      <c r="AH39" s="114"/>
-      <c r="AI39" s="115"/>
-      <c r="AJ39" s="116"/>
-      <c r="AK39" s="113"/>
-      <c r="AL39" s="114"/>
+      <c r="U39" s="139"/>
+      <c r="V39" s="140"/>
+      <c r="W39" s="145"/>
+      <c r="X39" s="143"/>
+      <c r="Y39" s="139"/>
+      <c r="Z39" s="140"/>
+      <c r="AA39" s="145"/>
+      <c r="AB39" s="143"/>
+      <c r="AC39" s="139"/>
+      <c r="AD39" s="140"/>
+      <c r="AE39" s="145"/>
+      <c r="AF39" s="143"/>
+      <c r="AG39" s="139"/>
+      <c r="AH39" s="140"/>
+      <c r="AI39" s="145"/>
+      <c r="AJ39" s="143"/>
+      <c r="AK39" s="139"/>
+      <c r="AL39" s="140"/>
     </row>
     <row r="40" spans="1:38" ht="36" customHeight="1">
-      <c r="A40" s="161"/>
-      <c r="B40" s="162"/>
-      <c r="C40" s="128" t="s">
+      <c r="A40" s="114"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="150" t="s">
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="137"/>
-      <c r="L40" s="137"/>
-      <c r="M40" s="138"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="119"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="120"/>
       <c r="N40" s="31"/>
       <c r="O40" s="65"/>
       <c r="P40" s="31"/>
@@ -26975,43 +27036,43 @@
       <c r="R40" s="31"/>
       <c r="S40" s="65"/>
       <c r="T40" s="31"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="114"/>
-      <c r="W40" s="115"/>
-      <c r="X40" s="116"/>
-      <c r="Y40" s="113"/>
-      <c r="Z40" s="114"/>
-      <c r="AA40" s="115"/>
-      <c r="AB40" s="116"/>
-      <c r="AC40" s="113"/>
-      <c r="AD40" s="114"/>
-      <c r="AE40" s="115"/>
-      <c r="AF40" s="116"/>
-      <c r="AG40" s="113"/>
-      <c r="AH40" s="114"/>
-      <c r="AI40" s="115"/>
-      <c r="AJ40" s="116"/>
-      <c r="AK40" s="113"/>
-      <c r="AL40" s="114"/>
+      <c r="U40" s="139"/>
+      <c r="V40" s="140"/>
+      <c r="W40" s="145"/>
+      <c r="X40" s="143"/>
+      <c r="Y40" s="139"/>
+      <c r="Z40" s="140"/>
+      <c r="AA40" s="145"/>
+      <c r="AB40" s="143"/>
+      <c r="AC40" s="139"/>
+      <c r="AD40" s="140"/>
+      <c r="AE40" s="145"/>
+      <c r="AF40" s="143"/>
+      <c r="AG40" s="139"/>
+      <c r="AH40" s="140"/>
+      <c r="AI40" s="145"/>
+      <c r="AJ40" s="143"/>
+      <c r="AK40" s="139"/>
+      <c r="AL40" s="140"/>
     </row>
     <row r="41" spans="1:38" ht="23.25" customHeight="1">
-      <c r="A41" s="161"/>
-      <c r="B41" s="162"/>
-      <c r="C41" s="128" t="s">
+      <c r="A41" s="114"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="136" t="s">
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="137"/>
-      <c r="L41" s="137"/>
-      <c r="M41" s="138"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="120"/>
       <c r="N41" s="59"/>
       <c r="O41" s="85"/>
       <c r="P41" s="59"/>
@@ -27019,43 +27080,43 @@
       <c r="R41" s="59"/>
       <c r="S41" s="85"/>
       <c r="T41" s="59"/>
-      <c r="U41" s="117"/>
-      <c r="V41" s="114"/>
-      <c r="W41" s="118"/>
-      <c r="X41" s="116"/>
-      <c r="Y41" s="117"/>
-      <c r="Z41" s="114"/>
-      <c r="AA41" s="118"/>
-      <c r="AB41" s="116"/>
-      <c r="AC41" s="117"/>
-      <c r="AD41" s="114"/>
-      <c r="AE41" s="118"/>
-      <c r="AF41" s="116"/>
-      <c r="AG41" s="117"/>
-      <c r="AH41" s="114"/>
-      <c r="AI41" s="118"/>
-      <c r="AJ41" s="116"/>
-      <c r="AK41" s="117"/>
-      <c r="AL41" s="114"/>
+      <c r="U41" s="146"/>
+      <c r="V41" s="140"/>
+      <c r="W41" s="144"/>
+      <c r="X41" s="143"/>
+      <c r="Y41" s="146"/>
+      <c r="Z41" s="140"/>
+      <c r="AA41" s="144"/>
+      <c r="AB41" s="143"/>
+      <c r="AC41" s="146"/>
+      <c r="AD41" s="140"/>
+      <c r="AE41" s="144"/>
+      <c r="AF41" s="143"/>
+      <c r="AG41" s="146"/>
+      <c r="AH41" s="140"/>
+      <c r="AI41" s="144"/>
+      <c r="AJ41" s="143"/>
+      <c r="AK41" s="146"/>
+      <c r="AL41" s="140"/>
     </row>
     <row r="42" spans="1:38" ht="23.25" customHeight="1">
-      <c r="A42" s="161"/>
-      <c r="B42" s="162"/>
-      <c r="C42" s="128" t="s">
+      <c r="A42" s="114"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="129"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="136" t="s">
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="137"/>
-      <c r="L42" s="137"/>
-      <c r="M42" s="138"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="120"/>
       <c r="N42" s="31"/>
       <c r="O42" s="65"/>
       <c r="P42" s="31"/>
@@ -27063,43 +27124,43 @@
       <c r="R42" s="31"/>
       <c r="S42" s="65"/>
       <c r="T42" s="31"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="115"/>
-      <c r="X42" s="116"/>
-      <c r="Y42" s="113"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="115"/>
-      <c r="AB42" s="116"/>
-      <c r="AC42" s="113"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="115"/>
-      <c r="AF42" s="116"/>
-      <c r="AG42" s="113"/>
-      <c r="AH42" s="114"/>
-      <c r="AI42" s="115"/>
-      <c r="AJ42" s="116"/>
-      <c r="AK42" s="113"/>
-      <c r="AL42" s="114"/>
+      <c r="U42" s="139"/>
+      <c r="V42" s="140"/>
+      <c r="W42" s="145"/>
+      <c r="X42" s="143"/>
+      <c r="Y42" s="139"/>
+      <c r="Z42" s="140"/>
+      <c r="AA42" s="145"/>
+      <c r="AB42" s="143"/>
+      <c r="AC42" s="139"/>
+      <c r="AD42" s="140"/>
+      <c r="AE42" s="145"/>
+      <c r="AF42" s="143"/>
+      <c r="AG42" s="139"/>
+      <c r="AH42" s="140"/>
+      <c r="AI42" s="145"/>
+      <c r="AJ42" s="143"/>
+      <c r="AK42" s="139"/>
+      <c r="AL42" s="140"/>
     </row>
     <row r="43" spans="1:38" ht="23.25" customHeight="1">
-      <c r="A43" s="161"/>
-      <c r="B43" s="162"/>
-      <c r="C43" s="128" t="s">
+      <c r="A43" s="114"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="136" t="s">
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137"/>
-      <c r="L43" s="137"/>
-      <c r="M43" s="138"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="119"/>
+      <c r="M43" s="120"/>
       <c r="N43" s="59"/>
       <c r="O43" s="85"/>
       <c r="P43" s="59"/>
@@ -27107,43 +27168,43 @@
       <c r="R43" s="59"/>
       <c r="S43" s="85"/>
       <c r="T43" s="59"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="118"/>
-      <c r="X43" s="116"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="116"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="118"/>
-      <c r="AF43" s="116"/>
-      <c r="AG43" s="117"/>
-      <c r="AH43" s="114"/>
-      <c r="AI43" s="118"/>
-      <c r="AJ43" s="116"/>
-      <c r="AK43" s="117"/>
-      <c r="AL43" s="114"/>
+      <c r="U43" s="146"/>
+      <c r="V43" s="140"/>
+      <c r="W43" s="144"/>
+      <c r="X43" s="143"/>
+      <c r="Y43" s="146"/>
+      <c r="Z43" s="140"/>
+      <c r="AA43" s="144"/>
+      <c r="AB43" s="143"/>
+      <c r="AC43" s="146"/>
+      <c r="AD43" s="140"/>
+      <c r="AE43" s="144"/>
+      <c r="AF43" s="143"/>
+      <c r="AG43" s="146"/>
+      <c r="AH43" s="140"/>
+      <c r="AI43" s="144"/>
+      <c r="AJ43" s="143"/>
+      <c r="AK43" s="146"/>
+      <c r="AL43" s="140"/>
     </row>
     <row r="44" spans="1:38" ht="23.25" customHeight="1">
-      <c r="A44" s="161"/>
-      <c r="B44" s="162"/>
-      <c r="C44" s="128" t="s">
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="136" t="s">
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="137"/>
-      <c r="L44" s="137"/>
-      <c r="M44" s="138"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="120"/>
       <c r="N44" s="59"/>
       <c r="O44" s="85"/>
       <c r="P44" s="59"/>
@@ -27151,43 +27212,43 @@
       <c r="R44" s="59"/>
       <c r="S44" s="85"/>
       <c r="T44" s="59"/>
-      <c r="U44" s="117"/>
-      <c r="V44" s="114"/>
-      <c r="W44" s="118"/>
-      <c r="X44" s="116"/>
-      <c r="Y44" s="117"/>
-      <c r="Z44" s="114"/>
-      <c r="AA44" s="118"/>
-      <c r="AB44" s="116"/>
-      <c r="AC44" s="117"/>
-      <c r="AD44" s="114"/>
-      <c r="AE44" s="118"/>
-      <c r="AF44" s="116"/>
-      <c r="AG44" s="117"/>
-      <c r="AH44" s="114"/>
-      <c r="AI44" s="118"/>
-      <c r="AJ44" s="116"/>
-      <c r="AK44" s="117"/>
-      <c r="AL44" s="114"/>
+      <c r="U44" s="146"/>
+      <c r="V44" s="140"/>
+      <c r="W44" s="144"/>
+      <c r="X44" s="143"/>
+      <c r="Y44" s="146"/>
+      <c r="Z44" s="140"/>
+      <c r="AA44" s="144"/>
+      <c r="AB44" s="143"/>
+      <c r="AC44" s="146"/>
+      <c r="AD44" s="140"/>
+      <c r="AE44" s="144"/>
+      <c r="AF44" s="143"/>
+      <c r="AG44" s="146"/>
+      <c r="AH44" s="140"/>
+      <c r="AI44" s="144"/>
+      <c r="AJ44" s="143"/>
+      <c r="AK44" s="146"/>
+      <c r="AL44" s="140"/>
     </row>
     <row r="45" spans="1:38" ht="23.25" customHeight="1">
-      <c r="A45" s="161"/>
-      <c r="B45" s="162"/>
-      <c r="C45" s="128" t="s">
+      <c r="A45" s="114"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="136" t="s">
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="137"/>
-      <c r="L45" s="137"/>
-      <c r="M45" s="138"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="120"/>
       <c r="N45" s="59"/>
       <c r="O45" s="85"/>
       <c r="P45" s="59"/>
@@ -27195,43 +27256,43 @@
       <c r="R45" s="59"/>
       <c r="S45" s="85"/>
       <c r="T45" s="59"/>
-      <c r="U45" s="117"/>
-      <c r="V45" s="114"/>
-      <c r="W45" s="118"/>
-      <c r="X45" s="116"/>
-      <c r="Y45" s="117"/>
-      <c r="Z45" s="114"/>
-      <c r="AA45" s="118"/>
-      <c r="AB45" s="116"/>
-      <c r="AC45" s="117"/>
-      <c r="AD45" s="114"/>
-      <c r="AE45" s="118"/>
-      <c r="AF45" s="116"/>
-      <c r="AG45" s="117"/>
-      <c r="AH45" s="114"/>
-      <c r="AI45" s="118"/>
-      <c r="AJ45" s="116"/>
-      <c r="AK45" s="117"/>
-      <c r="AL45" s="114"/>
+      <c r="U45" s="146"/>
+      <c r="V45" s="140"/>
+      <c r="W45" s="144"/>
+      <c r="X45" s="143"/>
+      <c r="Y45" s="146"/>
+      <c r="Z45" s="140"/>
+      <c r="AA45" s="144"/>
+      <c r="AB45" s="143"/>
+      <c r="AC45" s="146"/>
+      <c r="AD45" s="140"/>
+      <c r="AE45" s="144"/>
+      <c r="AF45" s="143"/>
+      <c r="AG45" s="146"/>
+      <c r="AH45" s="140"/>
+      <c r="AI45" s="144"/>
+      <c r="AJ45" s="143"/>
+      <c r="AK45" s="146"/>
+      <c r="AL45" s="140"/>
     </row>
     <row r="46" spans="1:38" ht="23.25" customHeight="1">
-      <c r="A46" s="161"/>
-      <c r="B46" s="162"/>
-      <c r="C46" s="128" t="s">
+      <c r="A46" s="114"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="136" t="s">
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="137"/>
-      <c r="L46" s="137"/>
-      <c r="M46" s="138"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="120"/>
       <c r="N46" s="59"/>
       <c r="O46" s="85"/>
       <c r="P46" s="59"/>
@@ -27239,43 +27300,43 @@
       <c r="R46" s="59"/>
       <c r="S46" s="85"/>
       <c r="T46" s="59"/>
-      <c r="U46" s="117"/>
-      <c r="V46" s="114"/>
-      <c r="W46" s="118"/>
-      <c r="X46" s="116"/>
-      <c r="Y46" s="117"/>
-      <c r="Z46" s="114"/>
-      <c r="AA46" s="118"/>
-      <c r="AB46" s="116"/>
-      <c r="AC46" s="117"/>
-      <c r="AD46" s="114"/>
-      <c r="AE46" s="118"/>
-      <c r="AF46" s="116"/>
-      <c r="AG46" s="117"/>
-      <c r="AH46" s="114"/>
-      <c r="AI46" s="118"/>
-      <c r="AJ46" s="116"/>
-      <c r="AK46" s="117"/>
-      <c r="AL46" s="114"/>
+      <c r="U46" s="146"/>
+      <c r="V46" s="140"/>
+      <c r="W46" s="144"/>
+      <c r="X46" s="143"/>
+      <c r="Y46" s="146"/>
+      <c r="Z46" s="140"/>
+      <c r="AA46" s="144"/>
+      <c r="AB46" s="143"/>
+      <c r="AC46" s="146"/>
+      <c r="AD46" s="140"/>
+      <c r="AE46" s="144"/>
+      <c r="AF46" s="143"/>
+      <c r="AG46" s="146"/>
+      <c r="AH46" s="140"/>
+      <c r="AI46" s="144"/>
+      <c r="AJ46" s="143"/>
+      <c r="AK46" s="146"/>
+      <c r="AL46" s="140"/>
     </row>
     <row r="47" spans="1:38" ht="23.25" customHeight="1">
-      <c r="A47" s="161"/>
-      <c r="B47" s="162"/>
-      <c r="C47" s="128" t="s">
+      <c r="A47" s="114"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="129"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="136" t="s">
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="137"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="137"/>
-      <c r="L47" s="137"/>
-      <c r="M47" s="138"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="120"/>
       <c r="N47" s="59"/>
       <c r="O47" s="85"/>
       <c r="P47" s="59"/>
@@ -27283,43 +27344,43 @@
       <c r="R47" s="59"/>
       <c r="S47" s="85"/>
       <c r="T47" s="59"/>
-      <c r="U47" s="117"/>
-      <c r="V47" s="114"/>
-      <c r="W47" s="118"/>
-      <c r="X47" s="116"/>
-      <c r="Y47" s="117"/>
-      <c r="Z47" s="114"/>
-      <c r="AA47" s="118"/>
-      <c r="AB47" s="116"/>
-      <c r="AC47" s="117"/>
-      <c r="AD47" s="114"/>
-      <c r="AE47" s="118"/>
-      <c r="AF47" s="116"/>
-      <c r="AG47" s="117"/>
-      <c r="AH47" s="114"/>
-      <c r="AI47" s="118"/>
-      <c r="AJ47" s="116"/>
-      <c r="AK47" s="117"/>
-      <c r="AL47" s="114"/>
+      <c r="U47" s="146"/>
+      <c r="V47" s="140"/>
+      <c r="W47" s="144"/>
+      <c r="X47" s="143"/>
+      <c r="Y47" s="146"/>
+      <c r="Z47" s="140"/>
+      <c r="AA47" s="144"/>
+      <c r="AB47" s="143"/>
+      <c r="AC47" s="146"/>
+      <c r="AD47" s="140"/>
+      <c r="AE47" s="144"/>
+      <c r="AF47" s="143"/>
+      <c r="AG47" s="146"/>
+      <c r="AH47" s="140"/>
+      <c r="AI47" s="144"/>
+      <c r="AJ47" s="143"/>
+      <c r="AK47" s="146"/>
+      <c r="AL47" s="140"/>
     </row>
     <row r="48" spans="1:38" ht="23.25" customHeight="1">
-      <c r="A48" s="161"/>
-      <c r="B48" s="162"/>
-      <c r="C48" s="128" t="s">
+      <c r="A48" s="114"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="136" t="s">
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="I48" s="137"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="137"/>
-      <c r="L48" s="137"/>
-      <c r="M48" s="138"/>
+      <c r="I48" s="119"/>
+      <c r="J48" s="119"/>
+      <c r="K48" s="119"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="120"/>
       <c r="N48" s="59"/>
       <c r="O48" s="85"/>
       <c r="P48" s="59"/>
@@ -27327,43 +27388,43 @@
       <c r="R48" s="59"/>
       <c r="S48" s="85"/>
       <c r="T48" s="59"/>
-      <c r="U48" s="117"/>
-      <c r="V48" s="114"/>
-      <c r="W48" s="118"/>
-      <c r="X48" s="116"/>
-      <c r="Y48" s="117"/>
-      <c r="Z48" s="114"/>
-      <c r="AA48" s="118"/>
-      <c r="AB48" s="116"/>
-      <c r="AC48" s="117"/>
-      <c r="AD48" s="114"/>
-      <c r="AE48" s="118"/>
-      <c r="AF48" s="116"/>
-      <c r="AG48" s="117"/>
-      <c r="AH48" s="114"/>
-      <c r="AI48" s="118"/>
-      <c r="AJ48" s="116"/>
-      <c r="AK48" s="117"/>
-      <c r="AL48" s="114"/>
+      <c r="U48" s="146"/>
+      <c r="V48" s="140"/>
+      <c r="W48" s="144"/>
+      <c r="X48" s="143"/>
+      <c r="Y48" s="146"/>
+      <c r="Z48" s="140"/>
+      <c r="AA48" s="144"/>
+      <c r="AB48" s="143"/>
+      <c r="AC48" s="146"/>
+      <c r="AD48" s="140"/>
+      <c r="AE48" s="144"/>
+      <c r="AF48" s="143"/>
+      <c r="AG48" s="146"/>
+      <c r="AH48" s="140"/>
+      <c r="AI48" s="144"/>
+      <c r="AJ48" s="143"/>
+      <c r="AK48" s="146"/>
+      <c r="AL48" s="140"/>
     </row>
     <row r="49" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A49" s="161"/>
-      <c r="B49" s="162"/>
-      <c r="C49" s="128" t="s">
+      <c r="A49" s="114"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="129"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="136" t="s">
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="137"/>
-      <c r="J49" s="137"/>
-      <c r="K49" s="137"/>
-      <c r="L49" s="137"/>
-      <c r="M49" s="138"/>
+      <c r="I49" s="119"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="119"/>
+      <c r="L49" s="119"/>
+      <c r="M49" s="120"/>
       <c r="N49" s="59"/>
       <c r="O49" s="85"/>
       <c r="P49" s="59"/>
@@ -27371,43 +27432,43 @@
       <c r="R49" s="59"/>
       <c r="S49" s="85"/>
       <c r="T49" s="59"/>
-      <c r="U49" s="117"/>
-      <c r="V49" s="114"/>
-      <c r="W49" s="118"/>
-      <c r="X49" s="116"/>
-      <c r="Y49" s="117"/>
-      <c r="Z49" s="114"/>
-      <c r="AA49" s="118"/>
-      <c r="AB49" s="116"/>
-      <c r="AC49" s="117"/>
-      <c r="AD49" s="114"/>
-      <c r="AE49" s="118"/>
-      <c r="AF49" s="116"/>
-      <c r="AG49" s="117"/>
-      <c r="AH49" s="114"/>
-      <c r="AI49" s="118"/>
-      <c r="AJ49" s="116"/>
-      <c r="AK49" s="117"/>
-      <c r="AL49" s="114"/>
+      <c r="U49" s="146"/>
+      <c r="V49" s="140"/>
+      <c r="W49" s="144"/>
+      <c r="X49" s="143"/>
+      <c r="Y49" s="146"/>
+      <c r="Z49" s="140"/>
+      <c r="AA49" s="144"/>
+      <c r="AB49" s="143"/>
+      <c r="AC49" s="146"/>
+      <c r="AD49" s="140"/>
+      <c r="AE49" s="144"/>
+      <c r="AF49" s="143"/>
+      <c r="AG49" s="146"/>
+      <c r="AH49" s="140"/>
+      <c r="AI49" s="144"/>
+      <c r="AJ49" s="143"/>
+      <c r="AK49" s="146"/>
+      <c r="AL49" s="140"/>
     </row>
     <row r="50" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A50" s="161"/>
-      <c r="B50" s="162"/>
-      <c r="C50" s="165" t="s">
+      <c r="A50" s="114"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="166"/>
-      <c r="E50" s="166"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="155" t="s">
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="I50" s="156"/>
-      <c r="J50" s="156"/>
-      <c r="K50" s="156"/>
-      <c r="L50" s="156"/>
-      <c r="M50" s="157"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="123"/>
       <c r="N50" s="31"/>
       <c r="O50" s="65"/>
       <c r="P50" s="31"/>
@@ -27415,43 +27476,43 @@
       <c r="R50" s="31"/>
       <c r="S50" s="65"/>
       <c r="T50" s="31"/>
-      <c r="U50" s="113"/>
-      <c r="V50" s="114"/>
-      <c r="W50" s="115"/>
-      <c r="X50" s="116"/>
-      <c r="Y50" s="113"/>
-      <c r="Z50" s="114"/>
-      <c r="AA50" s="115"/>
-      <c r="AB50" s="116"/>
-      <c r="AC50" s="113"/>
-      <c r="AD50" s="114"/>
-      <c r="AE50" s="115"/>
-      <c r="AF50" s="116"/>
-      <c r="AG50" s="113"/>
-      <c r="AH50" s="114"/>
-      <c r="AI50" s="115"/>
-      <c r="AJ50" s="116"/>
-      <c r="AK50" s="113"/>
-      <c r="AL50" s="114"/>
+      <c r="U50" s="139"/>
+      <c r="V50" s="140"/>
+      <c r="W50" s="145"/>
+      <c r="X50" s="143"/>
+      <c r="Y50" s="139"/>
+      <c r="Z50" s="140"/>
+      <c r="AA50" s="145"/>
+      <c r="AB50" s="143"/>
+      <c r="AC50" s="139"/>
+      <c r="AD50" s="140"/>
+      <c r="AE50" s="145"/>
+      <c r="AF50" s="143"/>
+      <c r="AG50" s="139"/>
+      <c r="AH50" s="140"/>
+      <c r="AI50" s="145"/>
+      <c r="AJ50" s="143"/>
+      <c r="AK50" s="139"/>
+      <c r="AL50" s="140"/>
     </row>
     <row r="51" spans="1:39" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A51" s="163"/>
-      <c r="B51" s="164"/>
-      <c r="C51" s="152" t="s">
+      <c r="A51" s="116"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="153"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="155" t="s">
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="I51" s="156"/>
-      <c r="J51" s="156"/>
-      <c r="K51" s="156"/>
-      <c r="L51" s="156"/>
-      <c r="M51" s="157"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="123"/>
       <c r="N51" s="82"/>
       <c r="O51" s="15"/>
       <c r="P51" s="82"/>
@@ -27459,24 +27520,24 @@
       <c r="R51" s="82"/>
       <c r="S51" s="15"/>
       <c r="T51" s="82"/>
-      <c r="U51" s="109"/>
-      <c r="V51" s="110"/>
-      <c r="W51" s="111"/>
-      <c r="X51" s="112"/>
-      <c r="Y51" s="109"/>
-      <c r="Z51" s="110"/>
-      <c r="AA51" s="111"/>
-      <c r="AB51" s="112"/>
-      <c r="AC51" s="109"/>
-      <c r="AD51" s="110"/>
-      <c r="AE51" s="111"/>
-      <c r="AF51" s="112"/>
-      <c r="AG51" s="109"/>
-      <c r="AH51" s="110"/>
-      <c r="AI51" s="111"/>
-      <c r="AJ51" s="112"/>
-      <c r="AK51" s="109"/>
-      <c r="AL51" s="110"/>
+      <c r="U51" s="147"/>
+      <c r="V51" s="148"/>
+      <c r="W51" s="126"/>
+      <c r="X51" s="128"/>
+      <c r="Y51" s="147"/>
+      <c r="Z51" s="148"/>
+      <c r="AA51" s="126"/>
+      <c r="AB51" s="128"/>
+      <c r="AC51" s="147"/>
+      <c r="AD51" s="148"/>
+      <c r="AE51" s="126"/>
+      <c r="AF51" s="128"/>
+      <c r="AG51" s="147"/>
+      <c r="AH51" s="148"/>
+      <c r="AI51" s="126"/>
+      <c r="AJ51" s="128"/>
+      <c r="AK51" s="147"/>
+      <c r="AL51" s="148"/>
       <c r="AM51" s="61"/>
     </row>
     <row r="52" spans="1:39" ht="24" customHeight="1">
@@ -27515,9 +27576,9 @@
       <c r="AC52" s="64"/>
       <c r="AD52" s="13"/>
       <c r="AE52" s="13"/>
-      <c r="AF52" s="151"/>
-      <c r="AG52" s="151"/>
-      <c r="AH52" s="151"/>
+      <c r="AF52" s="124"/>
+      <c r="AG52" s="124"/>
+      <c r="AH52" s="124"/>
       <c r="AI52" s="23"/>
       <c r="AJ52" s="13"/>
       <c r="AK52" s="13"/>
@@ -27645,15 +27706,15 @@
       <c r="E57" s="73"/>
       <c r="F57" s="73"/>
       <c r="T57" s="83"/>
-      <c r="AF57" s="168" t="s">
+      <c r="AF57" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="AG57" s="168"/>
-      <c r="AH57" s="168"/>
-      <c r="AI57" s="168"/>
-      <c r="AJ57" s="168"/>
-      <c r="AK57" s="168"/>
-      <c r="AL57" s="169"/>
+      <c r="AG57" s="91"/>
+      <c r="AH57" s="91"/>
+      <c r="AI57" s="91"/>
+      <c r="AJ57" s="91"/>
+      <c r="AK57" s="91"/>
+      <c r="AL57" s="92"/>
     </row>
     <row r="59" spans="1:39" ht="15.75" customHeight="1">
       <c r="C59" s="86"/>
@@ -27669,7 +27730,516 @@
       <c r="N64" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="534">
+  <mergeCells count="533">
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG3"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AE5:AF6"/>
+    <mergeCell ref="AG5:AH6"/>
+    <mergeCell ref="AI5:AJ6"/>
+    <mergeCell ref="AK5:AL6"/>
+    <mergeCell ref="AC51:AD51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AC50:AD50"/>
+    <mergeCell ref="AE50:AF50"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="AA50:AB50"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="AA51:AB51"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="U29:V30"/>
+    <mergeCell ref="W29:X30"/>
+    <mergeCell ref="Y29:Z30"/>
+    <mergeCell ref="AA29:AB30"/>
+    <mergeCell ref="AC29:AD30"/>
+    <mergeCell ref="AE29:AF30"/>
+    <mergeCell ref="AG29:AH30"/>
+    <mergeCell ref="AI29:AJ30"/>
+    <mergeCell ref="AK29:AL30"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="AA5:AB6"/>
+    <mergeCell ref="AC5:AD6"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H5:M6"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="O2:T3"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H29:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="AF52:AH52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="A31:B51"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="H14:M14"/>
     <mergeCell ref="AF57:AL57"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C39:G39"/>
@@ -27694,518 +28264,8 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="A31:B51"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="AF52:AH52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H29:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="V2:W3"/>
-    <mergeCell ref="O2:T3"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H5:M6"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="AA5:AB6"/>
-    <mergeCell ref="AC5:AD6"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="U29:V30"/>
-    <mergeCell ref="W29:X30"/>
-    <mergeCell ref="Y29:Z30"/>
-    <mergeCell ref="AA29:AB30"/>
-    <mergeCell ref="AC29:AD30"/>
-    <mergeCell ref="AE29:AF30"/>
-    <mergeCell ref="AG29:AH30"/>
-    <mergeCell ref="AI29:AJ30"/>
-    <mergeCell ref="AK29:AL30"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="AA50:AB50"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="AA51:AB51"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AA48:AB48"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="AA47:AB47"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AC47:AD47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AC49:AD49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AC51:AD51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AC50:AD50"/>
-    <mergeCell ref="AE50:AF50"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AB2:AC3"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AH2:AI3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AE2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AL3"/>
-    <mergeCell ref="AE5:AF6"/>
-    <mergeCell ref="AG5:AH6"/>
-    <mergeCell ref="AI5:AJ6"/>
-    <mergeCell ref="AK5:AL6"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
@@ -28218,7 +28278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="G7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="G7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:T1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
@@ -28546,28 +28608,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
     </row>
     <row r="2" spans="1:20" ht="24" customHeight="1">
       <c r="A2" s="43"/>
@@ -28648,89 +28710,89 @@
       <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="186" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="184">
+      <c r="F5" s="166">
         <v>1</v>
       </c>
-      <c r="G5" s="184">
+      <c r="G5" s="166">
         <v>2</v>
       </c>
-      <c r="H5" s="184">
+      <c r="H5" s="166">
         <v>3</v>
       </c>
-      <c r="I5" s="184">
+      <c r="I5" s="166">
         <v>4</v>
       </c>
-      <c r="J5" s="184">
+      <c r="J5" s="166">
         <v>5</v>
       </c>
-      <c r="K5" s="184">
+      <c r="K5" s="166">
         <v>6</v>
       </c>
-      <c r="L5" s="184">
+      <c r="L5" s="166">
         <v>7</v>
       </c>
-      <c r="M5" s="184">
+      <c r="M5" s="166">
         <v>8</v>
       </c>
-      <c r="N5" s="184">
+      <c r="N5" s="166">
         <v>9</v>
       </c>
-      <c r="O5" s="184">
+      <c r="O5" s="166">
         <v>10</v>
       </c>
-      <c r="P5" s="184">
+      <c r="P5" s="166">
         <v>11</v>
       </c>
-      <c r="Q5" s="184">
+      <c r="Q5" s="166">
         <v>12</v>
       </c>
-      <c r="R5" s="184">
+      <c r="R5" s="166">
         <v>13</v>
       </c>
-      <c r="S5" s="184">
+      <c r="S5" s="166">
         <v>14</v>
       </c>
-      <c r="T5" s="182">
+      <c r="T5" s="171">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="185"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="185"/>
-      <c r="O6" s="185"/>
-      <c r="P6" s="185"/>
-      <c r="Q6" s="185"/>
-      <c r="R6" s="185"/>
-      <c r="S6" s="185"/>
-      <c r="T6" s="183"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="172"/>
     </row>
     <row r="7" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="173" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -28760,7 +28822,7 @@
       <c r="T7" s="25"/>
     </row>
     <row r="8" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A8" s="178"/>
+      <c r="A8" s="173"/>
       <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
@@ -28788,7 +28850,7 @@
       <c r="T8" s="9"/>
     </row>
     <row r="9" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A9" s="178"/>
+      <c r="A9" s="173"/>
       <c r="B9" s="11" t="s">
         <v>89</v>
       </c>
@@ -28816,7 +28878,7 @@
       <c r="T9" s="9"/>
     </row>
     <row r="10" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A10" s="178"/>
+      <c r="A10" s="173"/>
       <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
@@ -28844,7 +28906,7 @@
       <c r="T10" s="9"/>
     </row>
     <row r="11" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A11" s="178"/>
+      <c r="A11" s="173"/>
       <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
@@ -28872,7 +28934,7 @@
       <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A12" s="178"/>
+      <c r="A12" s="173"/>
       <c r="B12" s="66" t="s">
         <v>51</v>
       </c>
@@ -28900,11 +28962,11 @@
       <c r="T12" s="9"/>
     </row>
     <row r="13" spans="1:20" ht="34.5" customHeight="1">
-      <c r="A13" s="178"/>
-      <c r="B13" s="180" t="s">
+      <c r="A13" s="173"/>
+      <c r="B13" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="181"/>
+      <c r="C13" s="176"/>
       <c r="D13" s="60" t="s">
         <v>34</v>
       </c>
@@ -28926,7 +28988,7 @@
       <c r="T13" s="19"/>
     </row>
     <row r="14" spans="1:20" ht="36" customHeight="1">
-      <c r="A14" s="178"/>
+      <c r="A14" s="173"/>
       <c r="B14" s="47" t="s">
         <v>71</v>
       </c>
@@ -28954,7 +29016,7 @@
       <c r="T14" s="9"/>
     </row>
     <row r="15" spans="1:20" ht="36" customHeight="1">
-      <c r="A15" s="178"/>
+      <c r="A15" s="173"/>
       <c r="B15" s="81" t="s">
         <v>83</v>
       </c>
@@ -28980,7 +29042,7 @@
       <c r="T15" s="9"/>
     </row>
     <row r="16" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A16" s="178"/>
+      <c r="A16" s="173"/>
       <c r="B16" s="66" t="s">
         <v>94</v>
       </c>
@@ -29008,7 +29070,7 @@
       <c r="T16" s="9"/>
     </row>
     <row r="17" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A17" s="178"/>
+      <c r="A17" s="173"/>
       <c r="B17" s="66" t="s">
         <v>57</v>
       </c>
@@ -29036,7 +29098,7 @@
       <c r="T17" s="9"/>
     </row>
     <row r="18" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A18" s="178"/>
+      <c r="A18" s="173"/>
       <c r="B18" s="66" t="s">
         <v>41</v>
       </c>
@@ -29064,7 +29126,7 @@
       <c r="T18" s="9"/>
     </row>
     <row r="19" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A19" s="178"/>
+      <c r="A19" s="173"/>
       <c r="B19" s="47" t="s">
         <v>77</v>
       </c>
@@ -29092,7 +29154,7 @@
       <c r="T19" s="9"/>
     </row>
     <row r="20" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A20" s="178"/>
+      <c r="A20" s="173"/>
       <c r="B20" s="47" t="s">
         <v>73</v>
       </c>
@@ -29120,7 +29182,7 @@
       <c r="T20" s="9"/>
     </row>
     <row r="21" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A21" s="178"/>
+      <c r="A21" s="173"/>
       <c r="B21" s="47" t="s">
         <v>37</v>
       </c>
@@ -29148,7 +29210,7 @@
       <c r="T21" s="9"/>
     </row>
     <row r="22" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A22" s="178"/>
+      <c r="A22" s="173"/>
       <c r="B22" s="47" t="s">
         <v>66</v>
       </c>
@@ -29176,7 +29238,7 @@
       <c r="T22" s="9"/>
     </row>
     <row r="23" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A23" s="178"/>
+      <c r="A23" s="173"/>
       <c r="B23" s="47" t="s">
         <v>87</v>
       </c>
@@ -29204,11 +29266,11 @@
       <c r="T23" s="9"/>
     </row>
     <row r="24" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A24" s="178"/>
-      <c r="B24" s="128" t="s">
+      <c r="A24" s="173"/>
+      <c r="B24" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="130"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="20" t="s">
         <v>3</v>
       </c>
@@ -29232,11 +29294,11 @@
       <c r="T24" s="9"/>
     </row>
     <row r="25" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A25" s="178"/>
-      <c r="B25" s="165" t="s">
+      <c r="A25" s="173"/>
+      <c r="B25" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="167"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="35" t="s">
         <v>52</v>
       </c>
@@ -29260,11 +29322,11 @@
       <c r="T25" s="9"/>
     </row>
     <row r="26" spans="1:21" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A26" s="179"/>
-      <c r="B26" s="152" t="s">
+      <c r="A26" s="174"/>
+      <c r="B26" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="154"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="51" t="s">
         <v>53</v>
       </c>
@@ -29311,89 +29373,89 @@
       <c r="T27" s="80"/>
     </row>
     <row r="28" spans="1:21" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A28" s="125" t="s">
+      <c r="A28" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="186" t="s">
+      <c r="B28" s="105"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="184">
+      <c r="E28" s="166">
         <v>16</v>
       </c>
-      <c r="F28" s="184">
+      <c r="F28" s="166">
         <v>17</v>
       </c>
-      <c r="G28" s="184">
+      <c r="G28" s="166">
         <v>18</v>
       </c>
-      <c r="H28" s="184">
+      <c r="H28" s="166">
         <v>19</v>
       </c>
-      <c r="I28" s="184">
+      <c r="I28" s="166">
         <v>20</v>
       </c>
-      <c r="J28" s="184">
+      <c r="J28" s="166">
         <v>21</v>
       </c>
-      <c r="K28" s="184">
+      <c r="K28" s="166">
         <v>22</v>
       </c>
-      <c r="L28" s="184">
+      <c r="L28" s="166">
         <v>23</v>
       </c>
-      <c r="M28" s="184">
+      <c r="M28" s="166">
         <v>24</v>
       </c>
-      <c r="N28" s="184">
+      <c r="N28" s="166">
         <v>25</v>
       </c>
-      <c r="O28" s="184">
+      <c r="O28" s="166">
         <v>26</v>
       </c>
-      <c r="P28" s="184">
+      <c r="P28" s="166">
         <v>27</v>
       </c>
-      <c r="Q28" s="184">
+      <c r="Q28" s="166">
         <v>28</v>
       </c>
-      <c r="R28" s="184">
+      <c r="R28" s="166">
         <v>29</v>
       </c>
-      <c r="S28" s="184">
+      <c r="S28" s="166">
         <v>30</v>
       </c>
-      <c r="T28" s="182">
+      <c r="T28" s="171">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="173"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="185"/>
-      <c r="K29" s="185"/>
-      <c r="L29" s="185"/>
-      <c r="M29" s="185"/>
-      <c r="N29" s="185"/>
-      <c r="O29" s="185"/>
-      <c r="P29" s="185"/>
-      <c r="Q29" s="185"/>
-      <c r="R29" s="185"/>
-      <c r="S29" s="185"/>
-      <c r="T29" s="183"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="167"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="167"/>
+      <c r="T29" s="172"/>
     </row>
     <row r="30" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A30" s="178" t="s">
+      <c r="A30" s="173" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -29421,7 +29483,7 @@
       <c r="T30" s="25"/>
     </row>
     <row r="31" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A31" s="178"/>
+      <c r="A31" s="173"/>
       <c r="B31" s="11" t="s">
         <v>6</v>
       </c>
@@ -29447,7 +29509,7 @@
       <c r="T31" s="9"/>
     </row>
     <row r="32" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A32" s="178"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="11" t="s">
         <v>89</v>
       </c>
@@ -29473,7 +29535,7 @@
       <c r="T32" s="9"/>
     </row>
     <row r="33" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A33" s="178"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="11" t="s">
         <v>33</v>
       </c>
@@ -29499,7 +29561,7 @@
       <c r="T33" s="9"/>
     </row>
     <row r="34" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A34" s="178"/>
+      <c r="A34" s="173"/>
       <c r="B34" s="11" t="s">
         <v>19</v>
       </c>
@@ -29525,7 +29587,7 @@
       <c r="T34" s="9"/>
     </row>
     <row r="35" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A35" s="178"/>
+      <c r="A35" s="173"/>
       <c r="B35" s="66" t="s">
         <v>51</v>
       </c>
@@ -29551,11 +29613,11 @@
       <c r="T35" s="9"/>
     </row>
     <row r="36" spans="1:20" ht="36" customHeight="1">
-      <c r="A36" s="178"/>
-      <c r="B36" s="180" t="s">
+      <c r="A36" s="173"/>
+      <c r="B36" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="181"/>
+      <c r="C36" s="176"/>
       <c r="D36" s="60" t="s">
         <v>34</v>
       </c>
@@ -29577,7 +29639,7 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:20" ht="36" customHeight="1">
-      <c r="A37" s="178"/>
+      <c r="A37" s="173"/>
       <c r="B37" s="47" t="s">
         <v>71</v>
       </c>
@@ -29603,7 +29665,7 @@
       <c r="T37" s="9"/>
     </row>
     <row r="38" spans="1:20" ht="36" customHeight="1">
-      <c r="A38" s="178"/>
+      <c r="A38" s="173"/>
       <c r="B38" s="81" t="s">
         <v>83</v>
       </c>
@@ -29629,7 +29691,7 @@
       <c r="T38" s="9"/>
     </row>
     <row r="39" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A39" s="178"/>
+      <c r="A39" s="173"/>
       <c r="B39" s="66" t="s">
         <v>94</v>
       </c>
@@ -29655,7 +29717,7 @@
       <c r="T39" s="9"/>
     </row>
     <row r="40" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A40" s="178"/>
+      <c r="A40" s="173"/>
       <c r="B40" s="66" t="s">
         <v>57</v>
       </c>
@@ -29681,7 +29743,7 @@
       <c r="T40" s="9"/>
     </row>
     <row r="41" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A41" s="178"/>
+      <c r="A41" s="173"/>
       <c r="B41" s="66" t="s">
         <v>41</v>
       </c>
@@ -29707,7 +29769,7 @@
       <c r="T41" s="9"/>
     </row>
     <row r="42" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A42" s="178"/>
+      <c r="A42" s="173"/>
       <c r="B42" s="47" t="s">
         <v>77</v>
       </c>
@@ -29733,7 +29795,7 @@
       <c r="T42" s="9"/>
     </row>
     <row r="43" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A43" s="178"/>
+      <c r="A43" s="173"/>
       <c r="B43" s="47" t="s">
         <v>73</v>
       </c>
@@ -29759,7 +29821,7 @@
       <c r="T43" s="9"/>
     </row>
     <row r="44" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A44" s="178"/>
+      <c r="A44" s="173"/>
       <c r="B44" s="47" t="s">
         <v>37</v>
       </c>
@@ -29785,7 +29847,7 @@
       <c r="T44" s="9"/>
     </row>
     <row r="45" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A45" s="178"/>
+      <c r="A45" s="173"/>
       <c r="B45" s="47" t="s">
         <v>66</v>
       </c>
@@ -29811,7 +29873,7 @@
       <c r="T45" s="9"/>
     </row>
     <row r="46" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A46" s="178"/>
+      <c r="A46" s="173"/>
       <c r="B46" s="47" t="s">
         <v>87</v>
       </c>
@@ -29837,11 +29899,11 @@
       <c r="T46" s="9"/>
     </row>
     <row r="47" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A47" s="178"/>
-      <c r="B47" s="128" t="s">
+      <c r="A47" s="173"/>
+      <c r="B47" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="130"/>
+      <c r="C47" s="95"/>
       <c r="D47" s="20" t="s">
         <v>3</v>
       </c>
@@ -29863,11 +29925,11 @@
       <c r="T47" s="9"/>
     </row>
     <row r="48" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A48" s="178"/>
-      <c r="B48" s="165" t="s">
+      <c r="A48" s="173"/>
+      <c r="B48" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="167"/>
+      <c r="C48" s="100"/>
       <c r="D48" s="35" t="s">
         <v>52</v>
       </c>
@@ -29889,11 +29951,11 @@
       <c r="T48" s="9"/>
     </row>
     <row r="49" spans="1:21" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A49" s="179"/>
-      <c r="B49" s="152" t="s">
+      <c r="A49" s="174"/>
+      <c r="B49" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="154"/>
+      <c r="C49" s="103"/>
       <c r="D49" s="51" t="s">
         <v>53</v>
       </c>
@@ -29936,8 +29998,8 @@
       <c r="N50" s="71"/>
       <c r="O50" s="64"/>
       <c r="P50" s="13"/>
-      <c r="Q50" s="151"/>
-      <c r="R50" s="151"/>
+      <c r="Q50" s="124"/>
+      <c r="R50" s="124"/>
       <c r="S50" s="13"/>
       <c r="T50" s="30"/>
       <c r="U50" s="61"/>
@@ -30015,11 +30077,11 @@
     <row r="55" spans="1:21" ht="24" customHeight="1" thickBot="1">
       <c r="B55" s="73"/>
       <c r="K55" s="83"/>
-      <c r="R55" s="175" t="s">
+      <c r="R55" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="S55" s="176"/>
-      <c r="T55" s="177"/>
+      <c r="S55" s="178"/>
+      <c r="T55" s="179"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" customHeight="1">
       <c r="B57" s="86"/>
@@ -30033,17 +30095,30 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="A30:A49"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="R5:R6"/>
@@ -30060,32 +30135,19 @@
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="A30:A49"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
@@ -30426,29 +30488,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="63" customFormat="1" ht="60" customHeight="1">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="194" t="s">
+      <c r="B1" s="192"/>
+      <c r="C1" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="192" t="s">
+      <c r="D1" s="194"/>
+      <c r="E1" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="196"/>
-      <c r="G1" s="193"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="192"/>
     </row>
     <row r="2" spans="1:7" s="63" customFormat="1" ht="52.5" customHeight="1">
       <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="199"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="198"/>
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
@@ -30461,11 +30523,11 @@
     </row>
     <row r="3" spans="1:7" ht="52.5" customHeight="1">
       <c r="A3" s="78"/>
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="78" t="s">
         <v>93</v>
       </c>
@@ -30478,11 +30540,11 @@
     </row>
     <row r="4" spans="1:7" ht="52.5" customHeight="1">
       <c r="A4" s="78"/>
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="181" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="183"/>
       <c r="E4" s="78" t="s">
         <v>43</v>
       </c>
@@ -30495,11 +30557,11 @@
     </row>
     <row r="5" spans="1:7" ht="52.5" customHeight="1">
       <c r="A5" s="78"/>
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="191"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="183"/>
       <c r="E5" s="78" t="s">
         <v>28</v>
       </c>
@@ -30512,11 +30574,11 @@
     </row>
     <row r="6" spans="1:7" ht="52.5" customHeight="1">
       <c r="A6" s="78"/>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="191"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="78" t="s">
         <v>13</v>
       </c>
@@ -30529,11 +30591,11 @@
     </row>
     <row r="7" spans="1:7" ht="52.5" customHeight="1">
       <c r="A7" s="78"/>
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="191"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="183"/>
       <c r="E7" s="78" t="s">
         <v>38</v>
       </c>
@@ -30546,11 +30608,11 @@
     </row>
     <row r="8" spans="1:7" ht="52.5" customHeight="1">
       <c r="A8" s="78"/>
-      <c r="B8" s="201" t="s">
+      <c r="B8" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="202"/>
-      <c r="D8" s="203"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="186"/>
       <c r="E8" s="78" t="s">
         <v>32</v>
       </c>
@@ -30563,80 +30625,86 @@
     </row>
     <row r="9" spans="1:7" ht="52.5" customHeight="1">
       <c r="A9" s="78"/>
-      <c r="B9" s="201"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="203"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186"/>
       <c r="E9" s="78"/>
       <c r="F9" s="78"/>
       <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:7" ht="52.5" customHeight="1">
       <c r="A10" s="78"/>
-      <c r="B10" s="201"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="203"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="186"/>
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:7" ht="52.5" customHeight="1">
       <c r="A11" s="45"/>
-      <c r="B11" s="204"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="206"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="189"/>
       <c r="E11" s="45"/>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:7" ht="52.5" customHeight="1">
       <c r="A12" s="45"/>
-      <c r="B12" s="204"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="206"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="189"/>
       <c r="E12" s="45"/>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
     </row>
     <row r="13" spans="1:7" ht="52.5" customHeight="1">
       <c r="A13" s="45"/>
-      <c r="B13" s="204"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="206"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:7" ht="52.5" customHeight="1">
       <c r="A14" s="45"/>
-      <c r="B14" s="204"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="206"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="189"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" ht="4.5" customHeight="1">
-      <c r="A15" s="207"/>
-      <c r="B15" s="207"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
+      <c r="A15" s="190"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
     </row>
     <row r="16" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A16" s="200" t="s">
+      <c r="A16" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="200"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
@@ -30649,14 +30717,8 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="A15:G15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -37447,7 +37509,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>